--- a/Design tool.xlsx
+++ b/Design tool.xlsx
@@ -5,11 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glimpens\Nextcloud\Personnel\Enabel\Projects\Design manuals\Solar datasheet\Design tool (adapted from Victron)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glimpens\Nextcloud\Personnel\Enabel\Projects\Tools\Design a solar system\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="2" r:id="rId1"/>
@@ -158,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="611">
   <si>
     <t>Printer Epson LX-300-II 220V</t>
   </si>
@@ -200,9 +201,6 @@
   </si>
   <si>
     <t>Output</t>
-  </si>
-  <si>
-    <t>Objective:  Characterise the power and energy demand</t>
   </si>
   <si>
     <t>Procedure:</t>
@@ -328,15 +326,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>1. Tech. specifications to size solar panels</t>
-  </si>
-  <si>
-    <t>2. Tech. specifications to design battery rack</t>
-  </si>
-  <si>
-    <t>3. Tech. specifications to size Controller and inverter</t>
-  </si>
-  <si>
     <t>Hours of autonomy</t>
   </si>
   <si>
@@ -426,9 +415,6 @@
     <t>Datasheet</t>
   </si>
   <si>
-    <t>FUTURASUN FU 310 P</t>
-  </si>
-  <si>
     <t>Panels properties</t>
   </si>
   <si>
@@ -963,9 +949,6 @@
   </si>
   <si>
     <t>Verify the adequacy between the different components (list of warnings)</t>
-  </si>
-  <si>
-    <t>If new models must be added to the list, we advise to have the confirmation of an expert.</t>
   </si>
   <si>
     <r>
@@ -1577,11 +1560,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>Solar system
-All cables to be Ultra-violet resistant.
-Solar panel will be mounted on a roof</t>
-  </si>
-  <si>
     <t>A.1</t>
   </si>
   <si>
@@ -1663,10 +1641,6 @@
     <t xml:space="preserve">B </t>
   </si>
   <si>
-    <t xml:space="preserve">Ancilliary components
-The following items will be supplied and/installed for the purpose of Maintenance and Operations of the installed systems </t>
-  </si>
-  <si>
     <t>B.1</t>
   </si>
   <si>
@@ -1692,14 +1666,6 @@
   </si>
   <si>
     <t>Error/warning chart; an A1 size chart illustrating common warning signs and error messages, and their meanings, labelled in English, securely mounted at a location readily accessible and easily understood by Operation and Maintenance staff. The lettering and drawings will be high contrast for good visibility.</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Lightning arrester installation
-All cables to be Ultra-violet resistant.
-Solar panels will be mounted on a stand-alone steel structure to be provided by Supplier</t>
   </si>
   <si>
     <t>D</t>
@@ -1807,9 +1773,6 @@
   </si>
   <si>
     <t>Maximal power that inverter can accepte by PV</t>
-  </si>
-  <si>
-    <t>Solaredge SE3000H</t>
   </si>
   <si>
     <t>Number of inverter PV condition</t>
@@ -2049,9 +2012,6 @@
     <t>With a nominal load</t>
   </si>
   <si>
-    <t>Figure: overall representation of the system design. The tool needs to 1. have a detailed list of appliances, then 2. it will design a system based on the products user has chosen. And finally, 3. a Bills of Quantities will be estimated.</t>
-  </si>
-  <si>
     <t>Standard value by battery technology (from MARGE):</t>
   </si>
   <si>
@@ -2065,18 +2025,6 @@
   </si>
   <si>
     <t>Department:                                                                                                                                                             '8/8</t>
-  </si>
-  <si>
-    <t>Facture elec sauvée estimée</t>
-  </si>
-  <si>
-    <t>€/mois</t>
-  </si>
-  <si>
-    <t>Prix du kWh</t>
-  </si>
-  <si>
-    <t>Gain (pay back time)</t>
   </si>
   <si>
     <r>
@@ -2103,10 +2051,89 @@
     </r>
   </si>
   <si>
-    <t>Check with your facture</t>
-  </si>
-  <si>
-    <t>Vision CG12-200XA</t>
+    <t>If new componetnt must be added to the list, we advise to have the review of an expert.</t>
+  </si>
+  <si>
+    <t>Figure: overall representation of the system design. The tool needs to 1. have a detailed list of appliances, then 2. it will design a system based on the products user has chosen. And finally, 3. a Bills of Quantities will be estimated. (Source: Victron)</t>
+  </si>
+  <si>
+    <t>Rita</t>
+  </si>
+  <si>
+    <t>DG12-200</t>
+  </si>
+  <si>
+    <t>https://www.ritarpower.com/uploads/ueditor/spec/DG12-200.pdf</t>
+  </si>
+  <si>
+    <t>Raggie</t>
+  </si>
+  <si>
+    <t>RG-MH5500W Plus</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Solar system
+All cables to be Ultra-violet resistant.
+Solar panels will be mounted on a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>roof/stand-alone</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> steel structure to be provided by Supplier</t>
+    </r>
+  </si>
+  <si>
+    <t>Choose if the system must be installed on a roof or stand alone. We advise roof when it is for a buildingµ</t>
+  </si>
+  <si>
+    <t>Database Batteries</t>
+  </si>
+  <si>
+    <t>Database hybrid inverters</t>
+  </si>
+  <si>
+    <t>Objective:  Pre-design system and verify component adequacies</t>
+  </si>
+  <si>
+    <t>1. Fast pre-design of the system</t>
+  </si>
+  <si>
+    <t>2. Budget estimation of the system</t>
+  </si>
+  <si>
+    <t>4. Verify adequacy between the different components</t>
+  </si>
+  <si>
+    <t>3. List of detailed components</t>
+  </si>
+  <si>
+    <t>Raggie RG-MH5500W Plus</t>
+  </si>
+  <si>
+    <t>Rita DG12-200</t>
+  </si>
+  <si>
+    <t>risen  RSM150-8-485M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visual information &amp; knowledge management
+The following items will be supplied and/installed for the purpose of Maintenance and Operations of the installed systems </t>
   </si>
 </sst>
 </file>
@@ -2123,7 +2150,7 @@
     <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* \-??_);_(@_)"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2376,6 +2403,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="21">
     <fill>
@@ -2496,7 +2537,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -3045,21 +3086,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -3111,19 +3137,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -3273,7 +3286,7 @@
     <xf numFmtId="165" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="229">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3456,132 +3469,111 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="20" fillId="0" borderId="43" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="21" fillId="19" borderId="39" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="44" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="20" fillId="0" borderId="44" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="42" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="27" fillId="19" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="19" borderId="37" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="21" fillId="19" borderId="39" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="42" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="19" borderId="47" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="19" borderId="40" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="168" fontId="21" fillId="19" borderId="40" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="20" fillId="0" borderId="45" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="45" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="45" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="19" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="27" fillId="19" borderId="48" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="19" borderId="37" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="42" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="20" fillId="19" borderId="48" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="19" borderId="48" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="20" fillId="19" borderId="49" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="19" borderId="40" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="21" fillId="19" borderId="40" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="46" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="10" borderId="52" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="10" borderId="50" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3593,16 +3585,16 @@
     <xf numFmtId="0" fontId="21" fillId="10" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="21" fillId="10" borderId="52" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="21" fillId="10" borderId="50" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="30" fillId="19" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="30" fillId="19" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3621,7 +3613,7 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="20" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
@@ -3649,13 +3641,39 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="9" borderId="8" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="13" xfId="9" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3665,33 +3683,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3701,10 +3695,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3743,13 +3737,13 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3803,7 +3797,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3830,20 +3824,14 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="8" borderId="7" xfId="2" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -4431,8 +4419,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18779938" y="4670396"/>
-          <a:ext cx="7291696" cy="1890649"/>
+          <a:off x="18783300" y="4664233"/>
+          <a:ext cx="7291696" cy="1888968"/>
           <a:chOff x="12524102" y="880827"/>
           <a:chExt cx="5330943" cy="2547542"/>
         </a:xfrm>
@@ -4906,10 +4894,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E43"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:D19"/>
+    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="1">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4921,387 +4912,393 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="G1" s="176" t="s">
-        <v>596</v>
-      </c>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="G1" s="174" t="s">
+        <v>592</v>
+      </c>
+      <c r="H1" s="174"/>
+      <c r="I1" s="174"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="174"/>
+      <c r="L1" s="174"/>
+      <c r="M1" s="174"/>
+      <c r="N1" s="174"/>
+      <c r="O1" s="174"/>
+      <c r="P1" s="174"/>
+      <c r="Q1" s="174"/>
+      <c r="R1" s="174"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="178" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="176"/>
-      <c r="K2" s="176"/>
-      <c r="L2" s="176"/>
-      <c r="M2" s="176"/>
-      <c r="N2" s="176"/>
-      <c r="O2" s="176"/>
-      <c r="P2" s="176"/>
-      <c r="Q2" s="176"/>
-      <c r="R2" s="176"/>
+      <c r="A2" s="175" t="s">
+        <v>602</v>
+      </c>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="174"/>
+      <c r="R2" s="174"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>49</v>
+        <v>603</v>
       </c>
       <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
-        <v>50</v>
+        <v>604</v>
       </c>
       <c r="C4" s="19"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
-        <v>51</v>
+        <v>606</v>
       </c>
       <c r="C5" s="19"/>
     </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="C6" s="19"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A13" s="177" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="177"/>
-      <c r="C13" s="177"/>
-      <c r="D13" s="177"/>
-      <c r="E13" s="177"/>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="173" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="174"/>
-      <c r="D15" s="175"/>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A14" s="173" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="173"/>
+      <c r="C14" s="173"/>
+      <c r="D14" s="173"/>
+      <c r="E14" s="173"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="173" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="174"/>
-      <c r="D16" s="175"/>
+        <v>34</v>
+      </c>
+      <c r="B16" s="176" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="177"/>
+      <c r="D16" s="178"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="173" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="174"/>
-      <c r="D17" s="175"/>
+        <v>35</v>
+      </c>
+      <c r="B17" s="176" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="177"/>
+      <c r="D17" s="178"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="176" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="177"/>
+      <c r="D18" s="178"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="176" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="177"/>
+      <c r="D19" s="178"/>
+    </row>
+    <row r="20" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="173" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="174"/>
-      <c r="D18" s="175"/>
-    </row>
-    <row r="19" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="172" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="172"/>
-      <c r="D19" s="172"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="173" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="174"/>
-      <c r="D20" s="175"/>
+      <c r="B20" s="168" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="168"/>
+      <c r="D20" s="168"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="173" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="174"/>
-      <c r="D21" s="175"/>
-      <c r="P21" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="176" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="177"/>
+      <c r="D21" s="178"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="176" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="177"/>
+      <c r="D22" s="178"/>
+      <c r="P22" s="71" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="179" t="s">
+        <v>255</v>
+      </c>
+      <c r="B24" s="179"/>
+      <c r="C24" s="179"/>
+      <c r="D24" s="179"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="72" t="s">
+        <v>247</v>
+      </c>
+      <c r="B25" s="168" t="s">
+        <v>248</v>
+      </c>
+      <c r="C25" s="168"/>
+      <c r="D25" s="168"/>
+    </row>
+    <row r="26" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="72" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" s="168" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" s="168"/>
+      <c r="D26" s="168"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="72" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="179" t="s">
-        <v>261</v>
-      </c>
-      <c r="B23" s="179"/>
-      <c r="C23" s="179"/>
-      <c r="D23" s="179"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="72" t="s">
+      <c r="B27" s="168" t="s">
         <v>252</v>
       </c>
-      <c r="B24" s="172" t="s">
+      <c r="C27" s="168"/>
+      <c r="D27" s="168"/>
+    </row>
+    <row r="28" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="72" t="s">
+        <v>231</v>
+      </c>
+      <c r="B28" s="168" t="s">
         <v>253</v>
       </c>
-      <c r="C24" s="172"/>
-      <c r="D24" s="172"/>
-    </row>
-    <row r="25" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="72" t="s">
-        <v>254</v>
-      </c>
-      <c r="B25" s="172" t="s">
-        <v>255</v>
-      </c>
-      <c r="C25" s="172"/>
-      <c r="D25" s="172"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="72" t="s">
+      <c r="C28" s="168"/>
+      <c r="D28" s="168"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="167" t="s">
+        <v>539</v>
+      </c>
+      <c r="B30" s="167"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="167"/>
+    </row>
+    <row r="31" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="72" t="s">
+        <v>540</v>
+      </c>
+      <c r="B31" s="168" t="s">
+        <v>542</v>
+      </c>
+      <c r="C31" s="168"/>
+      <c r="D31" s="168"/>
+    </row>
+    <row r="32" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="72" t="s">
+        <v>541</v>
+      </c>
+      <c r="B32" s="168" t="s">
+        <v>543</v>
+      </c>
+      <c r="C32" s="168"/>
+      <c r="D32" s="168"/>
+    </row>
+    <row r="34" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A34" s="173" t="s">
         <v>256</v>
       </c>
-      <c r="B26" s="172" t="s">
+      <c r="B34" s="173"/>
+      <c r="C34" s="173"/>
+      <c r="D34" s="173"/>
+      <c r="E34" s="173"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="169" t="s">
         <v>257</v>
       </c>
-      <c r="C26" s="172"/>
-      <c r="D26" s="172"/>
-    </row>
-    <row r="27" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="72" t="s">
-        <v>236</v>
-      </c>
-      <c r="B27" s="172" t="s">
-        <v>258</v>
-      </c>
-      <c r="C27" s="172"/>
-      <c r="D27" s="172"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="B35" s="170"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="168" t="s">
+        <v>534</v>
+      </c>
+      <c r="B36" s="168"/>
+    </row>
+    <row r="37" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="168" t="s">
+        <v>535</v>
+      </c>
+      <c r="B37" s="168"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="168" t="s">
+        <v>538</v>
+      </c>
+      <c r="B38" s="168"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="47"/>
+      <c r="B39" s="47"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="171" t="s">
+        <v>536</v>
+      </c>
+      <c r="B40" s="172"/>
+    </row>
+    <row r="41" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="168" t="s">
+        <v>537</v>
+      </c>
+      <c r="B41" s="168"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="47"/>
+      <c r="B42" s="47"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="171" t="s">
         <v>259</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-    </row>
-    <row r="29" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="184" t="s">
-        <v>550</v>
-      </c>
-      <c r="B29" s="184"/>
-      <c r="C29" s="184"/>
-      <c r="D29" s="184"/>
-    </row>
-    <row r="30" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="72" t="s">
-        <v>551</v>
-      </c>
-      <c r="B30" s="172" t="s">
-        <v>553</v>
-      </c>
-      <c r="C30" s="172"/>
-      <c r="D30" s="172"/>
-    </row>
-    <row r="31" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="72" t="s">
-        <v>552</v>
-      </c>
-      <c r="B31" s="172" t="s">
-        <v>554</v>
-      </c>
-      <c r="C31" s="172"/>
-      <c r="D31" s="172"/>
-    </row>
-    <row r="33" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A33" s="177" t="s">
-        <v>262</v>
-      </c>
-      <c r="B33" s="177"/>
-      <c r="C33" s="177"/>
-      <c r="D33" s="177"/>
-      <c r="E33" s="177"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="180" t="s">
-        <v>263</v>
-      </c>
-      <c r="B34" s="181"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="172" t="s">
-        <v>545</v>
-      </c>
-      <c r="B35" s="172"/>
-    </row>
-    <row r="36" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="172" t="s">
-        <v>546</v>
-      </c>
-      <c r="B36" s="172"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="172" t="s">
-        <v>549</v>
-      </c>
-      <c r="B37" s="172"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
-      <c r="B38" s="47"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="182" t="s">
-        <v>547</v>
-      </c>
-      <c r="B39" s="183"/>
-    </row>
-    <row r="40" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="172" t="s">
-        <v>548</v>
-      </c>
-      <c r="B40" s="172"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
-      <c r="B41" s="47"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="182" t="s">
-        <v>265</v>
-      </c>
-      <c r="B42" s="183"/>
-    </row>
-    <row r="43" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="172" t="s">
-        <v>266</v>
-      </c>
       <c r="B43" s="172"/>
+    </row>
+    <row r="44" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="168" t="s">
+        <v>260</v>
+      </c>
+      <c r="B44" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A29:D29"/>
     <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="G1:R2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="G1:R2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A2:C2"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A34:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5313,9 +5310,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A62" sqref="A62:B66"/>
     </sheetView>
+    <sheetView showGridLines="0" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5329,414 +5327,414 @@
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="84" t="s">
+        <v>362</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="226" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3" s="86" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="226"/>
+      <c r="B4" s="86" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="226"/>
+      <c r="B5" s="86" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="226"/>
+      <c r="B6" s="86" t="s">
         <v>368</v>
       </c>
-      <c r="B2" s="85" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="226"/>
+      <c r="B7" s="86" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="234" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="226" t="s">
         <v>370</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B8" s="86" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="226"/>
+      <c r="B9" s="86" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="234"/>
-      <c r="B4" s="86" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="226"/>
+      <c r="B10" s="86" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="234"/>
-      <c r="B5" s="86" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="226" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="234"/>
-      <c r="B6" s="86" t="s">
+      <c r="B11" s="86" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="234"/>
-      <c r="B7" s="86" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="226"/>
+      <c r="B12" s="86" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="234" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="226"/>
+      <c r="B13" s="86" t="s">
         <v>376</v>
       </c>
-      <c r="B8" s="86" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="234"/>
-      <c r="B9" s="86" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="226"/>
+      <c r="B14" s="86" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="234"/>
-      <c r="B10" s="86" t="s">
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="226"/>
+      <c r="B15" s="86" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="234" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="226"/>
+      <c r="B16" s="86" t="s">
         <v>379</v>
       </c>
-      <c r="B11" s="86" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="226"/>
+      <c r="B17" s="86" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="234"/>
-      <c r="B12" s="86" t="s">
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="226"/>
+      <c r="B18" s="86" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="234"/>
-      <c r="B13" s="86" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="226"/>
+      <c r="B19" s="86" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="234"/>
-      <c r="B14" s="86" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="227" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="234"/>
-      <c r="B15" s="86" t="s">
+      <c r="B20" s="86" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="234"/>
-      <c r="B16" s="86" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="227"/>
+      <c r="B21" s="86" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="234"/>
-      <c r="B17" s="86" t="s">
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="227"/>
+      <c r="B22" s="86" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="234"/>
-      <c r="B18" s="86" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="227"/>
+      <c r="B23" s="86" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="234"/>
-      <c r="B19" s="86" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="226" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="235" t="s">
+      <c r="B24" s="86" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="226"/>
+      <c r="B25" s="87" t="s">
         <v>389</v>
       </c>
-      <c r="B20" s="86" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="226"/>
+      <c r="B26" s="86" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="235"/>
-      <c r="B21" s="86" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="226"/>
+      <c r="B27" s="86" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="235"/>
-      <c r="B22" s="86" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="226"/>
+      <c r="B28" s="86" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="235"/>
-      <c r="B23" s="86" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="226" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="234" t="s">
+      <c r="B29" s="86" t="s">
         <v>394</v>
       </c>
-      <c r="B24" s="86" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="234"/>
-      <c r="B25" s="87" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="226"/>
+      <c r="B30" s="86" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="234"/>
-      <c r="B26" s="86" t="s">
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="226"/>
+      <c r="B31" s="86" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="234"/>
-      <c r="B27" s="86" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="226"/>
+      <c r="B32" s="86" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="234"/>
-      <c r="B28" s="86" t="s">
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="226"/>
+      <c r="B33" s="86" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="234" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="226" t="s">
         <v>399</v>
       </c>
-      <c r="B29" s="86" t="s">
+      <c r="B34" s="86" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="234"/>
-      <c r="B30" s="86" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="226"/>
+      <c r="B35" s="86" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="234"/>
-      <c r="B31" s="86" t="s">
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="226"/>
+      <c r="B36" s="86" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="234"/>
-      <c r="B32" s="86" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="226"/>
+      <c r="B37" s="86" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="234"/>
-      <c r="B33" s="86" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="226"/>
+      <c r="B38" s="87" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="234" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="226"/>
+      <c r="B39" s="86" t="s">
         <v>405</v>
       </c>
-      <c r="B34" s="86" t="s">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="226"/>
+      <c r="B40" s="86" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="234"/>
-      <c r="B35" s="86" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="226"/>
+      <c r="B41" s="87" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="234"/>
-      <c r="B36" s="86" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="226"/>
+      <c r="B42" s="86" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="234"/>
-      <c r="B37" s="86" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="226"/>
+      <c r="B43" s="86" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="234"/>
-      <c r="B38" s="87" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="226"/>
+      <c r="B44" s="86" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="234"/>
-      <c r="B39" s="86" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="226"/>
+      <c r="B45" s="86" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="234"/>
-      <c r="B40" s="86" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="226"/>
+      <c r="B46" s="87" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="234"/>
-      <c r="B41" s="87" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="226"/>
+      <c r="B47" s="87" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="234"/>
-      <c r="B42" s="86" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="226"/>
+      <c r="B48" s="86" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="234"/>
-      <c r="B43" s="86" t="s">
+    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="226"/>
+      <c r="B49" s="86" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="234"/>
-      <c r="B44" s="86" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="226"/>
+      <c r="B50" s="86" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="234"/>
-      <c r="B45" s="86" t="s">
+    <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="226"/>
+      <c r="B51" s="86" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="234"/>
-      <c r="B46" s="87" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="226" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="234"/>
-      <c r="B47" s="87" t="s">
+      <c r="B52" s="86" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="234"/>
-      <c r="B48" s="86" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="226"/>
+      <c r="B53" s="87" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="234"/>
-      <c r="B49" s="86" t="s">
+    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="226"/>
+      <c r="B54" s="87" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="234"/>
-      <c r="B50" s="86" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="226"/>
+      <c r="B55" s="86" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="234"/>
-      <c r="B51" s="86" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="226"/>
+      <c r="B56" s="86" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="234" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="226"/>
+      <c r="B57" s="86" t="s">
         <v>424</v>
       </c>
-      <c r="B52" s="86" t="s">
+    </row>
+    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="226"/>
+      <c r="B58" s="86" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="234"/>
-      <c r="B53" s="87" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="226"/>
+      <c r="B59" s="86" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="234"/>
-      <c r="B54" s="87" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="226"/>
+      <c r="B60" s="87" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="234"/>
-      <c r="B55" s="86" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="226"/>
+      <c r="B61" s="87" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="234"/>
-      <c r="B56" s="86" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="226" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="234"/>
-      <c r="B57" s="86" t="s">
+      <c r="B62" s="86" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="234"/>
-      <c r="B58" s="86" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="226"/>
+      <c r="B63" s="86" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="234"/>
-      <c r="B59" s="86" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="226"/>
+      <c r="B64" s="86" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="234"/>
-      <c r="B60" s="87" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="226" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="234"/>
-      <c r="B61" s="87" t="s">
+      <c r="B65" s="86" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="234" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="226"/>
+      <c r="B66" s="86" t="s">
         <v>435</v>
-      </c>
-      <c r="B62" s="86" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="234"/>
-      <c r="B63" s="86" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="234"/>
-      <c r="B64" s="86" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="234" t="s">
-        <v>439</v>
-      </c>
-      <c r="B65" s="86" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="234"/>
-      <c r="B66" s="86" t="s">
-        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -5761,8 +5759,9 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
+    <sheetView showGridLines="0" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5772,70 +5771,70 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="70" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B2" s="75"/>
       <c r="C2" s="60"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B3" s="75"/>
       <c r="C3" s="60"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="61" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B4" s="75"/>
       <c r="C4" s="60"/>
     </row>
     <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="70" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B5" s="70"/>
       <c r="C5" s="60"/>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B6" s="75"/>
       <c r="C6" s="60"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="61" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B7" s="75"/>
       <c r="C7" s="60"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B8" s="75"/>
       <c r="C8" s="60"/>
     </row>
     <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="70" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B9" s="70"/>
       <c r="C9" s="60"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B10" s="75"/>
       <c r="C10" s="60"/>
@@ -5855,9 +5854,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24:L24"/>
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5869,44 +5869,44 @@
   <sheetData>
     <row r="2" spans="1:16" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="191" t="s">
-        <v>358</v>
-      </c>
-      <c r="L2" s="192"/>
-      <c r="M2" s="193"/>
+      <c r="K2" s="186" t="s">
+        <v>352</v>
+      </c>
+      <c r="L2" s="187"/>
+      <c r="M2" s="188"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>2</v>
@@ -5921,30 +5921,30 @@
         <v>2</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3" s="64" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="L3" s="76">
         <f>'2. System'!B20*'2bis. Panels'!B9/1000</f>
-        <v>3.8123635589159259</v>
+        <v>15.739311005803739</v>
       </c>
       <c r="M3" s="64" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B4" s="13">
         <v>23</v>
@@ -5974,21 +5974,21 @@
         <v>8280</v>
       </c>
       <c r="K4" s="64" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L4" s="76">
         <f>'2. System'!B28*'2bis. Batteries'!B16*'2bis. Batteries'!B18/1000</f>
-        <v>8.5920000000000005</v>
+        <v>35.472000000000001</v>
       </c>
       <c r="M4" s="64" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B5" s="13">
         <v>2</v>
@@ -6018,21 +6018,21 @@
         <v>1008</v>
       </c>
       <c r="K5" s="64" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="L5" s="77">
         <f>'2bis. Hyb. Inverter'!B3*'2bis. Hyb. Inverter'!B5/1000</f>
-        <v>0.92400000000000015</v>
+        <v>2.4024000000000001</v>
       </c>
       <c r="M5" s="64" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B6" s="13">
         <v>0</v>
@@ -6066,7 +6066,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B7" s="13">
         <v>1</v>
@@ -6100,10 +6100,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B8" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" s="13">
         <v>560</v>
@@ -6113,11 +6113,11 @@
       </c>
       <c r="E8" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="F8" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="G8" s="13">
         <v>12</v>
@@ -6127,7 +6127,7 @@
       </c>
       <c r="I8" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>40320</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -6216,7 +6216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -6236,7 +6236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -6256,7 +6256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -6276,7 +6276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -6296,7 +6296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -6316,7 +6316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -6336,7 +6336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -6376,7 +6376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -6396,7 +6396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -6416,7 +6416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -6440,32 +6440,32 @@
       <c r="A24" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="195"/>
-      <c r="C24" s="196"/>
-      <c r="D24" s="197"/>
+      <c r="B24" s="190"/>
+      <c r="C24" s="191"/>
+      <c r="D24" s="192"/>
       <c r="E24" s="18">
         <f>SUM(E4:E23)</f>
-        <v>1050</v>
+        <v>2730</v>
       </c>
       <c r="F24" s="18">
         <f>SUM(F4:F23)</f>
-        <v>1050</v>
+        <v>2730</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="18">
         <f>SUM(I4:I23)</f>
-        <v>12888</v>
+        <v>53208</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="194" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="194"/>
+        <v>32</v>
+      </c>
+      <c r="C26" s="189" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="189"/>
       <c r="E26" s="25">
         <v>0.8</v>
       </c>
@@ -6474,124 +6474,124 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="185" t="s">
-        <v>270</v>
+      <c r="A27" s="180" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="186"/>
+      <c r="A28" s="181"/>
       <c r="D28" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E28" s="18">
         <f>E24*E26</f>
-        <v>840</v>
+        <v>2184</v>
       </c>
       <c r="F28" s="18">
         <f>F24*F26</f>
-        <v>840</v>
+        <v>2184</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="187"/>
+      <c r="A29" s="182"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
     <row r="31" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="198" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="198"/>
-      <c r="D31" s="198"/>
+      <c r="B31" s="193" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="193"/>
+      <c r="D31" s="193"/>
       <c r="E31" s="2"/>
-      <c r="G31" s="189" t="s">
-        <v>606</v>
-      </c>
-      <c r="H31" s="190"/>
-      <c r="I31" s="190"/>
-      <c r="J31" s="190"/>
-      <c r="K31" s="190"/>
+      <c r="G31" s="184" t="s">
+        <v>590</v>
+      </c>
+      <c r="H31" s="185"/>
+      <c r="I31" s="185"/>
+      <c r="J31" s="185"/>
+      <c r="K31" s="185"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="198"/>
-      <c r="C32" s="198"/>
-      <c r="D32" s="198"/>
+      <c r="B32" s="193"/>
+      <c r="C32" s="193"/>
+      <c r="D32" s="193"/>
       <c r="E32" s="2"/>
-      <c r="G32" s="189"/>
-      <c r="H32" s="190"/>
-      <c r="I32" s="190"/>
-      <c r="J32" s="190"/>
-      <c r="K32" s="190"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="185"/>
+      <c r="I32" s="185"/>
+      <c r="J32" s="185"/>
+      <c r="K32" s="185"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="198"/>
-      <c r="C33" s="198"/>
-      <c r="D33" s="198"/>
+      <c r="B33" s="193"/>
+      <c r="C33" s="193"/>
+      <c r="D33" s="193"/>
       <c r="E33" s="2"/>
-      <c r="G33" s="189"/>
-      <c r="H33" s="190"/>
-      <c r="I33" s="190"/>
-      <c r="J33" s="190"/>
-      <c r="K33" s="190"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="185"/>
+      <c r="I33" s="185"/>
+      <c r="J33" s="185"/>
+      <c r="K33" s="185"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="198"/>
-      <c r="C34" s="198"/>
-      <c r="D34" s="198"/>
-      <c r="G34" s="189"/>
-      <c r="H34" s="190"/>
-      <c r="I34" s="190"/>
-      <c r="J34" s="190"/>
-      <c r="K34" s="190"/>
+      <c r="B34" s="193"/>
+      <c r="C34" s="193"/>
+      <c r="D34" s="193"/>
+      <c r="G34" s="184"/>
+      <c r="H34" s="185"/>
+      <c r="I34" s="185"/>
+      <c r="J34" s="185"/>
+      <c r="K34" s="185"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="198"/>
-      <c r="C35" s="198"/>
-      <c r="D35" s="198"/>
-      <c r="G35" s="189"/>
-      <c r="H35" s="190"/>
-      <c r="I35" s="190"/>
-      <c r="J35" s="190"/>
-      <c r="K35" s="190"/>
+      <c r="B35" s="193"/>
+      <c r="C35" s="193"/>
+      <c r="D35" s="193"/>
+      <c r="G35" s="184"/>
+      <c r="H35" s="185"/>
+      <c r="I35" s="185"/>
+      <c r="J35" s="185"/>
+      <c r="K35" s="185"/>
     </row>
     <row r="44" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A44" s="188" t="s">
-        <v>264</v>
-      </c>
-      <c r="B44" s="188"/>
-      <c r="C44" s="188"/>
-      <c r="D44" s="188"/>
-      <c r="E44" s="188"/>
-      <c r="F44" s="188"/>
-      <c r="G44" s="188"/>
+      <c r="A44" s="183" t="s">
+        <v>258</v>
+      </c>
+      <c r="B44" s="183"/>
+      <c r="C44" s="183"/>
+      <c r="D44" s="183"/>
+      <c r="E44" s="183"/>
+      <c r="F44" s="183"/>
+      <c r="G44" s="183"/>
       <c r="H44"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E45" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F45" s="24" t="s">
-        <v>31</v>
-      </c>
       <c r="G45" s="24" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H45"/>
     </row>
@@ -6601,10 +6601,10 @@
         <v xml:space="preserve">Light LED - big (office) </v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D46" s="22"/>
       <c r="E46" s="22">
@@ -6622,10 +6622,10 @@
         <v xml:space="preserve">Light LED - small (office) </v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D47" s="23"/>
       <c r="E47" s="23">
@@ -6643,10 +6643,10 @@
         <v xml:space="preserve">Light LED - big (outside) </v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D48" s="22"/>
       <c r="E48" s="22">
@@ -6664,7 +6664,7 @@
         <v xml:space="preserve">Printer Epson LX-300-II 220V </v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="C49" s="23" t="s">
         <v>0</v>
@@ -6685,7 +6685,7 @@
         <v xml:space="preserve">Scanner HP Scanjet G3010 </v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="C50" s="22" t="s">
         <v>1</v>
@@ -6706,10 +6706,10 @@
         <v xml:space="preserve">Office computer </v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D51" s="23"/>
       <c r="E51" s="23">
@@ -6727,10 +6727,10 @@
         <v xml:space="preserve">wifi box </v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D52" s="22"/>
       <c r="E52" s="22">
@@ -6748,13 +6748,13 @@
         <v>Kanmed AB Babywarmer BW3</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E53" s="23">
         <v>100</v>
@@ -6771,13 +6771,13 @@
         <v>Medpath OLV-10</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E54" s="22">
         <v>550</v>
@@ -6794,13 +6794,13 @@
         <v>Phoenix Medical Systems Phototherapy unit Brilliance pro</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E55" s="23">
         <v>25</v>
@@ -6817,13 +6817,13 @@
         <v>Airsep Newlife</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E56" s="22">
         <v>350</v>
@@ -6840,13 +6840,13 @@
         <v>Heal Force INFANT INCUBATOR YXK-6G</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E57" s="23">
         <v>450</v>
@@ -6862,13 +6862,13 @@
         <v>Being BRW-3000B</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E58" s="22">
         <v>1000</v>
@@ -6884,13 +6884,13 @@
         <v>CEPHIED GX - IV R2</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E59" s="23">
         <f>1.4*240</f>
@@ -6907,13 +6907,13 @@
         <v>Dison/Lotus BB-100</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E60" s="22">
         <v>650</v>
@@ -6929,13 +6929,13 @@
         <v>SMAF YX930D</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E61" s="23">
         <v>250</v>
@@ -6951,13 +6951,13 @@
         <v xml:space="preserve">Yuwell 7F-5 </v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E62" s="22">
         <v>500</v>
@@ -6973,13 +6973,13 @@
         <v>Zybio Z3</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E63" s="23">
         <v>200</v>
@@ -6995,13 +6995,13 @@
         <v>Pima Alere CD4</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E64" s="22">
         <f>63</f>
@@ -7019,13 +7019,13 @@
         <v>Haier 4℃ Blood Bank Refrigerator</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E65" s="23">
         <v>250</v>
@@ -7041,13 +7041,13 @@
         <v>Blood bank refrigerator XY-190</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E66" s="22">
         <v>200</v>
@@ -7063,13 +7063,13 @@
         <v>EDAN  X10</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E67" s="23">
         <f>240*0.7</f>
@@ -7087,10 +7087,10 @@
         <v xml:space="preserve">Pima EID </v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D68" s="22"/>
       <c r="E68" s="22">
@@ -7107,10 +7107,10 @@
         <v xml:space="preserve">Sysmex </v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D69" s="23"/>
       <c r="E69" s="23">
@@ -7127,11 +7127,11 @@
         <v xml:space="preserve"> DC 112F</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C70" s="22"/>
       <c r="D70" s="22" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E70" s="22">
         <v>65</v>
@@ -7147,13 +7147,13 @@
         <v>Hettich EBA200</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E71" s="23">
         <v>120</v>
@@ -7169,13 +7169,13 @@
         <v>Olympus CX21FSI</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E72" s="22">
         <v>60</v>
@@ -7191,13 +7191,13 @@
         <v>AEROplus AE5.00</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E73" s="23">
         <v>295</v>
@@ -7213,13 +7213,13 @@
         <v>JIANGSU 8F-5A</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E74" s="22">
         <v>400</v>
@@ -7235,13 +7235,13 @@
         <v>Famed lodz Solis 30FA</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E75" s="23">
         <v>48</v>
@@ -7257,13 +7257,13 @@
         <v>ADH BCD30-898</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E76" s="22">
         <v>228</v>
@@ -7279,13 +7279,13 @@
         <v>Dufex Ohmeda 9100C</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E77" s="23">
         <v>1000</v>
@@ -7301,13 +7301,13 @@
         <v>Longfian Jay-10</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E78" s="22">
         <v>880</v>
@@ -7323,13 +7323,13 @@
         <v>Famed lodz YDK-L01</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E79" s="23">
         <v>50</v>
@@ -7338,7 +7338,7 @@
         <v>50</v>
       </c>
       <c r="G79" s="23" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -7347,13 +7347,13 @@
         <v>Fazzini F-18.00</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E80" s="22">
         <v>85</v>
@@ -7369,13 +7369,13 @@
         <v>Ningbo David medical HKN-90</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E81" s="23">
         <v>120</v>
@@ -7391,10 +7391,10 @@
         <v xml:space="preserve">Titanox </v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D82" s="22"/>
       <c r="E82" s="22">
@@ -7411,13 +7411,13 @@
         <v>Hemocue HB301</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E83" s="23">
         <v>30</v>
@@ -7426,7 +7426,7 @@
         <v>30</v>
       </c>
       <c r="G83" s="23" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -7435,13 +7435,13 @@
         <v>CENCE TDZ5-WS</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E84" s="22">
         <v>400</v>
@@ -7759,8 +7759,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView showGridLines="0" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="1">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -7776,21 +7779,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="177" t="s">
-        <v>232</v>
-      </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
+      <c r="A1" s="173" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
       <c r="F1" s="48"/>
       <c r="H1" s="74" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="70" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B2" s="60"/>
       <c r="C2" s="60"/>
@@ -7800,7 +7803,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -7810,7 +7813,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -7820,7 +7823,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -7830,43 +7833,43 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B6" s="63">
         <v>8</v>
       </c>
       <c r="C6" s="62" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F6" s="48"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="61" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B7" s="75">
         <v>7</v>
       </c>
       <c r="C7" s="62" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F7" s="48"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B8" s="63">
         <v>8</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F8" s="48"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -7876,40 +7879,40 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
-        <v>233</v>
-      </c>
-      <c r="B10" s="201" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="201"/>
+        <v>228</v>
+      </c>
+      <c r="B10" s="196" t="s">
+        <v>609</v>
+      </c>
+      <c r="C10" s="196"/>
       <c r="D10" s="50" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F10" s="48"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="201" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="196" t="s">
         <v>608</v>
       </c>
-      <c r="C11" s="201"/>
+      <c r="C11" s="196"/>
       <c r="D11" s="50" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F11" s="48"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
-        <v>242</v>
-      </c>
-      <c r="B12" s="201" t="s">
-        <v>523</v>
-      </c>
-      <c r="C12" s="201"/>
+        <v>237</v>
+      </c>
+      <c r="B12" s="196" t="s">
+        <v>607</v>
+      </c>
+      <c r="C12" s="196"/>
       <c r="D12" s="50" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F12" s="48"/>
     </row>
@@ -7918,7 +7921,7 @@
     </row>
     <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="70" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
@@ -7928,7 +7931,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -7938,100 +7941,100 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B16" s="52"/>
       <c r="F16" s="48"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="64" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="B17" s="81">
         <f>'2bis. Hyb. Inverter'!B22</f>
-        <v>1</v>
-      </c>
-      <c r="C17" s="205" t="s">
-        <v>115</v>
+        <v>3</v>
+      </c>
+      <c r="C17" s="200" t="s">
+        <v>110</v>
       </c>
       <c r="F17" s="48"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="64" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B18" s="67">
-        <v>1</v>
-      </c>
-      <c r="C18" s="205"/>
+        <v>3</v>
+      </c>
+      <c r="C18" s="200"/>
       <c r="D18" s="50"/>
       <c r="F18" s="48"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="73" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B19" s="52"/>
       <c r="F19" s="48"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="64" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="B20" s="66">
         <f>'2bis. Panels'!B17</f>
-        <v>12.277075935155159</v>
-      </c>
-      <c r="C20" s="202" t="s">
-        <v>56</v>
+        <v>32.416763136786066</v>
+      </c>
+      <c r="C20" s="197" t="s">
+        <v>52</v>
       </c>
       <c r="D20" s="50"/>
       <c r="F20" s="48"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="64" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="B21" s="66">
         <f>ROUNDUP(B20/B18,0)</f>
-        <v>13</v>
-      </c>
-      <c r="C21" s="203"/>
+        <v>11</v>
+      </c>
+      <c r="C21" s="198"/>
       <c r="D21" s="50"/>
       <c r="F21" s="48"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="64" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="B22" s="67">
-        <v>14</v>
-      </c>
-      <c r="C22" s="203"/>
+        <v>12</v>
+      </c>
+      <c r="C22" s="198"/>
       <c r="D22" s="50"/>
       <c r="F22" s="48"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="64" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="B23" s="81">
         <f>'2bis. Panels'!B19</f>
         <v>9</v>
       </c>
-      <c r="C23" s="203"/>
+      <c r="C23" s="198"/>
       <c r="D23" s="50"/>
       <c r="E23" s="50"/>
       <c r="F23" s="48"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="64" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B24" s="67">
-        <v>7</v>
-      </c>
-      <c r="C24" s="203"/>
+        <v>6</v>
+      </c>
+      <c r="C24" s="198"/>
       <c r="D24" s="50" t="str">
         <f>IF(B24&lt;=B23,"ok","Too high voltage, reduce panels in series (max given in cell 22).")</f>
         <v>ok</v>
@@ -8041,13 +8044,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="64" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B25" s="65">
         <f>B22/B24</f>
         <v>2</v>
       </c>
-      <c r="C25" s="203"/>
+      <c r="C25" s="198"/>
       <c r="D25" s="50" t="str">
         <f>IF(MOD(B25,1)=0,"ok","Number of panels in parallel should be an integer number. Revise the number of panels.")</f>
         <v>ok</v>
@@ -8056,98 +8059,98 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="64" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="B26" s="65">
         <f>B22*B18</f>
-        <v>14</v>
-      </c>
-      <c r="C26" s="204"/>
+        <v>36</v>
+      </c>
+      <c r="C26" s="199"/>
       <c r="D26" s="50"/>
       <c r="F26" s="48"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="73" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B27" s="52"/>
-      <c r="C27" s="161"/>
+      <c r="C27" s="154"/>
       <c r="D27" s="50"/>
       <c r="F27" s="48"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="64" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="B28" s="66">
         <f>MAX('2bis. Batteries'!B27,'2bis. Batteries'!B28)</f>
-        <v>3.58</v>
-      </c>
-      <c r="C28" s="202" t="s">
-        <v>90</v>
+        <v>14.78</v>
+      </c>
+      <c r="C28" s="197" t="s">
+        <v>85</v>
       </c>
       <c r="D28" s="50"/>
       <c r="F28" s="48"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="64" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B29" s="68">
-        <v>12</v>
-      </c>
-      <c r="C29" s="204"/>
+        <v>16</v>
+      </c>
+      <c r="C29" s="199"/>
       <c r="D29" s="50"/>
       <c r="F29" s="48"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="64" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="B30" s="81">
         <f>'2bis. Batteries'!B29</f>
-        <v>24</v>
-      </c>
-      <c r="C30" s="202" t="s">
-        <v>96</v>
+        <v>48</v>
+      </c>
+      <c r="C30" s="197" t="s">
+        <v>91</v>
       </c>
       <c r="D30" s="50"/>
       <c r="F30" s="48"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="64" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B31" s="67">
         <v>48</v>
       </c>
-      <c r="C31" s="204"/>
+      <c r="C31" s="199"/>
       <c r="D31" s="50"/>
       <c r="F31" s="48"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="64" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B32" s="65">
         <f>'2. System'!B31/'2bis. Batteries'!B16</f>
         <v>4</v>
       </c>
-      <c r="C32" s="202" t="s">
-        <v>90</v>
+      <c r="C32" s="197" t="s">
+        <v>85</v>
       </c>
       <c r="D32" s="50"/>
       <c r="F32" s="48"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="64" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B33" s="65">
         <f>B29/B32</f>
-        <v>3</v>
-      </c>
-      <c r="C33" s="204"/>
+        <v>4</v>
+      </c>
+      <c r="C33" s="199"/>
       <c r="D33" s="50" t="str">
         <f>IF(MOD(B33,1)=0,"ok","Number of panels in parallel should be an integer number. Revise number of batteries")</f>
         <v>ok</v>
@@ -8156,28 +8159,28 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="64" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="B34" s="66">
-        <f>('1. Appliances'!I24)/('2bis. Batteries'!B18*'2bis. Batteries'!B16/'2bis. Batteries'!B7*B29)*24</f>
-        <v>5.37</v>
-      </c>
-      <c r="C34" s="170" t="s">
-        <v>91</v>
+        <f>('2bis. Batteries'!B18*'2bis. Batteries'!B16*'2bis. Batteries'!B7*B29)/('1. Appliances'!I24)*24</f>
+        <v>8.6603518267929633</v>
+      </c>
+      <c r="C34" s="163" t="s">
+        <v>86</v>
       </c>
       <c r="D34" s="50"/>
       <c r="F34" s="48"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="64" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="B35" s="81">
         <f>'2bis. Batteries'!B30</f>
         <v>4.2016806722689077</v>
       </c>
-      <c r="C35" s="169" t="s">
-        <v>576</v>
+      <c r="C35" s="162" t="s">
+        <v>565</v>
       </c>
       <c r="D35" s="50"/>
       <c r="F35" s="48"/>
@@ -8187,7 +8190,7 @@
     </row>
     <row r="37" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" s="70" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B37" s="60"/>
       <c r="C37" s="60"/>
@@ -8200,7 +8203,7 @@
     </row>
     <row r="38" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="69" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B38" s="69"/>
       <c r="C38" s="69"/>
@@ -8212,20 +8215,20 @@
       <c r="I38" s="69"/>
     </row>
     <row r="39" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="199" t="s">
-        <v>167</v>
-      </c>
-      <c r="B39" s="199"/>
+      <c r="A39" s="194" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" s="194"/>
       <c r="C39" s="48"/>
-      <c r="D39" s="199" t="s">
-        <v>237</v>
-      </c>
-      <c r="E39" s="199"/>
+      <c r="D39" s="194" t="s">
+        <v>232</v>
+      </c>
+      <c r="E39" s="194"/>
       <c r="F39" s="48"/>
-      <c r="G39" s="200" t="s">
-        <v>166</v>
-      </c>
-      <c r="H39" s="200"/>
+      <c r="G39" s="195" t="s">
+        <v>161</v>
+      </c>
+      <c r="H39" s="195"/>
       <c r="I39" s="49"/>
       <c r="J39" s="48"/>
       <c r="K39" s="48"/>
@@ -8237,15 +8240,15 @@
     <row r="40" spans="1:15" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C40" s="48"/>
       <c r="D40" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E40" s="14">
         <f>'2. System'!B24*'2bis. Panels'!B10</f>
-        <v>259.7</v>
+        <v>253.32</v>
       </c>
       <c r="F40" s="48"/>
       <c r="G40" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H40" s="14">
         <f>B31</f>
@@ -8262,19 +8265,19 @@
     <row r="41" spans="1:15" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C41" s="48"/>
       <c r="D41" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E41" s="14">
         <f>'2bis. Hyb. Inverter'!C12/'2bis. Hyb. Inverter'!B5</f>
-        <v>0</v>
+        <v>109.09090909090908</v>
       </c>
       <c r="F41" s="48"/>
       <c r="G41" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H41" s="14">
         <f>'2bis. Hyb. Inverter'!C15</f>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="I41" s="49"/>
       <c r="J41" s="48"/>
@@ -8286,15 +8289,15 @@
     </row>
     <row r="42" spans="1:15" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B42" s="15" t="str">
         <f>IF(B18&gt;1,"This tool is preferred for 1 inverter design. Consider using a more powerful inverter. Otherwise, use inverters in parallel (this requires good installation skills).","Ok")</f>
-        <v>Ok</v>
+        <v>This tool is preferred for 1 inverter design. Consider using a more powerful inverter. Otherwise, use inverters in parallel (this requires good installation skills).</v>
       </c>
       <c r="C42" s="48"/>
       <c r="D42" s="20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E42" s="15" t="str">
         <f>IF(E40&lt;E41,"Increase panels in series","Ok")</f>
@@ -8302,11 +8305,11 @@
       </c>
       <c r="F42" s="48"/>
       <c r="G42" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H42" s="15" t="str">
         <f>IF(B69=B70,"Ok","The battery system voltage is not adequate with Inverter.")</f>
-        <v>The battery system voltage is not adequate with Inverter.</v>
+        <v>Ok</v>
       </c>
       <c r="I42" s="49"/>
       <c r="J42" s="48"/>
@@ -8319,19 +8322,19 @@
     <row r="43" spans="1:15" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C43" s="48"/>
       <c r="D43" s="20" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E43" s="14">
         <f>'2bis. Panels'!B12*B24</f>
-        <v>319.90000000000003</v>
+        <v>302.10000000000002</v>
       </c>
       <c r="F43" s="48"/>
       <c r="G43" s="20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H43" s="14">
         <f>B29*'2bis. Batteries'!B20</f>
-        <v>3123.7985925886487</v>
+        <v>4165.0647901181983</v>
       </c>
       <c r="I43" s="49"/>
       <c r="J43" s="48"/>
@@ -8344,19 +8347,19 @@
     <row r="44" spans="1:15" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C44" s="48"/>
       <c r="D44" s="20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E44" s="14">
         <f>'2bis. Hyb. Inverter'!C13*'2bis. Hyb. Inverter'!B5</f>
-        <v>110.00000000000001</v>
+        <v>132</v>
       </c>
       <c r="F44" s="48"/>
       <c r="G44" s="20" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H44" s="14">
         <f>'1. Appliances'!E28</f>
-        <v>840</v>
+        <v>2184</v>
       </c>
       <c r="I44" s="49"/>
       <c r="J44" s="48"/>
@@ -8368,15 +8371,15 @@
     </row>
     <row r="45" spans="1:15" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="B45" s="15" t="str">
         <f>IF('2bis. Panels'!B16&gt;15000,"High power system. Consider a AC-coupling system","Ok")</f>
-        <v>Ok</v>
+        <v>High power system. Consider a AC-coupling system</v>
       </c>
       <c r="C45" s="48"/>
       <c r="D45" s="20" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E45" s="15" t="str">
         <f>IF(E43&lt;E44,"Increase panels in series","Ok")</f>
@@ -8384,7 +8387,7 @@
       </c>
       <c r="F45" s="48"/>
       <c r="G45" s="20" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H45" s="15" t="str">
         <f>IF(H43&lt;H44,"Demand cannot be supplied, increase number of batteries","Ok")</f>
@@ -8403,19 +8406,19 @@
       <c r="B46" s="48"/>
       <c r="C46" s="48"/>
       <c r="D46" s="20" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E46" s="14">
         <f>'2bis. Panels'!B12*B24</f>
-        <v>319.90000000000003</v>
+        <v>302.10000000000002</v>
       </c>
       <c r="F46" s="48"/>
       <c r="G46" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H46" s="14">
         <f>B29*'2bis. Batteries'!B22</f>
-        <v>12000</v>
+        <v>7080.6101432009382</v>
       </c>
       <c r="I46" s="49"/>
       <c r="J46" s="48"/>
@@ -8430,19 +8433,19 @@
       <c r="B47" s="48"/>
       <c r="C47" s="48"/>
       <c r="D47" s="20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E47" s="14">
         <f>'2bis. Hyb. Inverter'!C11/'2bis. Hyb. Inverter'!B5</f>
-        <v>436.36363636363632</v>
+        <v>454.5454545454545</v>
       </c>
       <c r="F47" s="48"/>
       <c r="G47" s="20" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H47" s="14">
         <f>'1. Appliances'!F28</f>
-        <v>840</v>
+        <v>2184</v>
       </c>
       <c r="I47" s="49"/>
       <c r="J47" s="48"/>
@@ -8457,7 +8460,7 @@
       <c r="B48" s="48"/>
       <c r="C48" s="48"/>
       <c r="D48" s="20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E48" s="15" t="str">
         <f>IF(E46&gt;E47,"Decrease panels in serie","Ok")</f>
@@ -8465,7 +8468,7 @@
       </c>
       <c r="F48" s="48"/>
       <c r="G48" s="20" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H48" s="15" t="str">
         <f>IF(H46&lt;H47,"Surge demand cannot be supplied, increase number of batteries","Ok")</f>
@@ -8484,19 +8487,19 @@
       <c r="B49" s="48"/>
       <c r="C49" s="48"/>
       <c r="D49" s="20" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E49" s="14">
         <f>'2bis. Panels'!B11*B25</f>
-        <v>16.739999999999998</v>
+        <v>23</v>
       </c>
       <c r="F49" s="48"/>
       <c r="G49" s="20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H49" s="14">
         <f>H43/B69/B32</f>
-        <v>16.269784336399212</v>
+        <v>21.693045781865617</v>
       </c>
       <c r="I49" s="49"/>
       <c r="J49" s="48"/>
@@ -8511,19 +8514,19 @@
       <c r="B50" s="48"/>
       <c r="C50" s="48"/>
       <c r="D50" s="20" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E50" s="14">
         <f>'2bis. Hyb. Inverter'!C14</f>
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="F50" s="48"/>
       <c r="G50" s="20" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H50" s="14">
         <f>'2bis. Hyb. Inverter'!C16</f>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I50" s="49"/>
       <c r="J50" s="48"/>
@@ -8538,15 +8541,15 @@
       <c r="B51" s="48"/>
       <c r="C51" s="48"/>
       <c r="D51" s="20" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E51" s="15" t="str">
         <f>IF(E49&gt;E50,"Decrease panels in parallel","Ok")</f>
-        <v>Decrease panels in parallel</v>
+        <v>Ok</v>
       </c>
       <c r="F51" s="48"/>
       <c r="G51" s="20" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H51" s="15" t="str">
         <f>IF(H49&gt;H50,"Current from batteries too high, increase system voltage","Ok")</f>
@@ -8565,15 +8568,15 @@
       <c r="B52" s="48"/>
       <c r="C52" s="48"/>
       <c r="D52" s="20" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="E52" s="14">
         <f>'2bis. Panels'!B9*B22</f>
-        <v>4347.3779999999997</v>
+        <v>5826.36</v>
       </c>
       <c r="F52" s="48"/>
       <c r="G52" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H52" s="14">
         <f>'2bis. Batteries'!B23</f>
@@ -8592,15 +8595,15 @@
       <c r="B53" s="48"/>
       <c r="C53" s="48"/>
       <c r="D53" s="20" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="E53" s="14">
         <f>'2bis. Hyb. Inverter'!C11*'2bis. Hyb. Inverter'!C14</f>
-        <v>4320</v>
+        <v>50000</v>
       </c>
       <c r="F53" s="48"/>
       <c r="G53" s="20" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H53" s="14">
         <f>'2. System'!B8*'2bis. Batteries'!B13</f>
@@ -8619,15 +8622,15 @@
       <c r="B54" s="48"/>
       <c r="C54" s="48"/>
       <c r="D54" s="20" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="E54" s="15" t="str">
         <f>IF(E52&gt;E53,"Decrease number of panels","Ok")</f>
-        <v>Decrease number of panels</v>
+        <v>Ok</v>
       </c>
       <c r="F54" s="48"/>
       <c r="G54" s="20" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H54" s="15" t="str">
         <f>IF(H52&lt;H53,"Number of cycles insufficient to ensure correct lifetime. Advice: decrease Depth of Discharge, chose another battery","Ok")</f>
@@ -8649,11 +8652,11 @@
       <c r="E55" s="48"/>
       <c r="F55" s="48"/>
       <c r="G55" s="20" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="H55" s="14">
         <f>B33</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I55" s="49"/>
       <c r="J55" s="48"/>
@@ -8671,7 +8674,7 @@
       <c r="E56" s="48"/>
       <c r="F56" s="48"/>
       <c r="G56" s="20" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="H56" s="13">
         <v>3</v>
@@ -8692,11 +8695,11 @@
       <c r="E57" s="48"/>
       <c r="F57" s="48"/>
       <c r="G57" s="20" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="H57" s="15" t="str">
         <f>IF(H55&gt;H56,"Too many batteries in parallel, consider using 2V batteries or increase system voltage","Ok")</f>
-        <v>Ok</v>
+        <v>Too many batteries in parallel, consider using 2V batteries or increase system voltage</v>
       </c>
       <c r="I57" s="49"/>
       <c r="J57" s="48"/>
@@ -8719,31 +8722,27 @@
     </row>
     <row r="59" spans="1:15" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="B59" s="58" t="str">
+        <v>159</v>
+      </c>
+      <c r="B59" s="58">
         <f>'2bis. Hyb. Inverter'!C17</f>
-        <v>"Missing information in datasheet:
-No clear data on Solar input constraints (V_PV start), 
-no surge power"</v>
+        <v>0</v>
       </c>
       <c r="C59" s="48"/>
       <c r="D59" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="E59" s="58" t="str">
+        <v>62</v>
+      </c>
+      <c r="E59" s="58">
         <f>'2bis. Hyb. Inverter'!C17</f>
-        <v>"Missing information in datasheet:
-No clear data on Solar input constraints (V_PV start), 
-no surge power"</v>
+        <v>0</v>
       </c>
       <c r="F59" s="48"/>
       <c r="G59" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="H59" s="58" t="str">
+        <v>159</v>
+      </c>
+      <c r="H59" s="58">
         <f>'2bis. Batteries'!B24</f>
-        <v>No confident on the data</v>
+        <v>0</v>
       </c>
       <c r="I59" s="49"/>
     </row>
@@ -8767,7 +8766,7 @@
     <row r="70" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B70" s="14">
         <f>'2bis. Hyb. Inverter'!C15</f>
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="2:3" collapsed="1" x14ac:dyDescent="0.25"/>
@@ -8795,28 +8794,28 @@
     <row r="77" spans="2:3" collapsed="1" x14ac:dyDescent="0.25"/>
     <row r="78" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="2:3" collapsed="1" x14ac:dyDescent="0.25"/>
     <row r="81" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82" spans="3:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="3:3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -8955,7 +8954,10 @@
   <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C18" sqref="C17:C18"/>
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="1">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8968,281 +8970,281 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="177" t="s">
-        <v>199</v>
-      </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
+      <c r="A1" s="173" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
       <c r="D2" s="20" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="165">
+        <v>53</v>
+      </c>
+      <c r="B3" s="158">
         <f>'1. Appliances'!I24</f>
-        <v>12888</v>
+        <v>53208</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B4" s="67">
         <v>5366</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" s="168">
+        <v>168</v>
+      </c>
+      <c r="B5" s="161">
         <v>0.7</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6" s="168">
+        <v>169</v>
+      </c>
+      <c r="B6" s="161">
         <v>0.9</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="178" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="178"/>
-      <c r="C8" s="178"/>
+      <c r="A8" s="175" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="175"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="20" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="165">
+        <v>57</v>
+      </c>
+      <c r="B9" s="158">
         <f>VLOOKUP('2. System'!B$10,A$24:J$56,4,FALSE)</f>
-        <v>310.52699999999999</v>
+        <v>485.53</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="165">
+        <v>78</v>
+      </c>
+      <c r="B10" s="158">
         <f>VLOOKUP('2. System'!B$10,A$24:J$56,5,FALSE)</f>
-        <v>37.1</v>
+        <v>42.22</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="165">
+        <v>79</v>
+      </c>
+      <c r="B11" s="158">
         <f>VLOOKUP('2. System'!B$10,A$24:J$56,6,FALSE)</f>
-        <v>8.3699999999999992</v>
+        <v>11.5</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="165">
+        <v>80</v>
+      </c>
+      <c r="B12" s="158">
         <f>VLOOKUP('2. System'!B$10,A$24:J$56,7,FALSE)</f>
-        <v>45.7</v>
+        <v>50.35</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="165">
+        <v>81</v>
+      </c>
+      <c r="B13" s="158">
         <f>VLOOKUP('2. System'!B$10,A$24:J$56,8,FALSE)</f>
-        <v>8.85</v>
+        <v>12.25</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="178" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="178"/>
-      <c r="C15" s="178"/>
+      <c r="A15" s="175" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="175"/>
+      <c r="C15" s="175"/>
       <c r="D15" s="20" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B16" s="66">
         <f>B3/B4/B5/B6*1000</f>
-        <v>3812.3635589159258</v>
+        <v>15739.311005803738</v>
       </c>
       <c r="C16" s="64" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B17" s="66">
         <f>B16/B9</f>
-        <v>12.277075935155159</v>
+        <v>32.416763136786066</v>
       </c>
       <c r="C17" s="64" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="B18" s="66">
         <f>TRUNC('2bis. Hyb. Inverter'!C13/B12,0)</f>
         <v>2</v>
       </c>
       <c r="C18" s="64" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="164" t="s">
-        <v>516</v>
+      <c r="A19" s="157" t="s">
+        <v>506</v>
       </c>
       <c r="B19" s="81">
         <f>TRUNC('2bis. Hyb. Inverter'!C11/B12/'2bis. Hyb. Inverter'!B5,0)</f>
         <v>9</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="164" t="s">
-        <v>564</v>
+      <c r="A20" s="157" t="s">
+        <v>553</v>
       </c>
       <c r="B20" s="81">
         <f>'2bis. Hyb. Inverter'!C14/'2bis. Panels'!B13</f>
-        <v>1.0169491525423728</v>
+        <v>8.1632653061224492</v>
       </c>
       <c r="C20" s="64" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A22" s="177" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="177"/>
-      <c r="C22" s="177"/>
-      <c r="D22" s="177"/>
-      <c r="E22" s="177"/>
+      <c r="A22" s="173" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="173"/>
+      <c r="C22" s="173"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="173"/>
       <c r="F22" s="50" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="G23" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="H23" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="I23" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" s="24" t="s">
         <v>62</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="J23" s="24" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -9251,10 +9253,10 @@
         <v>Victron Energy SPM20-12</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D24" s="22">
         <f>E24*F24</f>
@@ -9274,7 +9276,7 @@
       </c>
       <c r="I24" s="22"/>
       <c r="J24" s="22" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -9283,10 +9285,10 @@
         <v>risen RSM144-410M</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D25" s="23">
         <f>E25*F25</f>
@@ -9305,7 +9307,7 @@
         <v>10.7</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J25" s="23"/>
     </row>
@@ -9315,10 +9317,10 @@
         <v>FUTURASUN FU 310 P</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D26" s="22">
         <f>E26*F26</f>
@@ -9337,7 +9339,7 @@
         <v>8.85</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J26" s="22"/>
     </row>
@@ -9347,10 +9349,10 @@
         <v>risen  RSM150-8-485M</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D27" s="23">
         <f>E27*F27</f>
@@ -9369,7 +9371,7 @@
         <v>12.25</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J27" s="23"/>
     </row>
@@ -9745,7 +9747,10 @@
   <dimension ref="A1:R68"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="1">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9763,25 +9768,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="177" t="s">
-        <v>197</v>
-      </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
+      <c r="A1" s="173" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
       <c r="D2" s="20" t="s">
         <v>8</v>
       </c>
       <c r="R2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -9789,277 +9794,277 @@
         <f>'2. System'!A6</f>
         <v>Hours of autonomy</v>
       </c>
-      <c r="B3" s="165">
+      <c r="B3" s="158">
         <f>'2. System'!B6</f>
         <v>8</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="165">
+        <v>87</v>
+      </c>
+      <c r="B4" s="158">
         <f>'1. Appliances'!E28</f>
-        <v>840</v>
+        <v>2184</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="165">
+        <v>31</v>
+      </c>
+      <c r="B5" s="158">
         <f>'1. Appliances'!I24</f>
-        <v>12888</v>
+        <v>53208</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D5" s="50"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="67" t="str">
+        <v>95</v>
+      </c>
+      <c r="B6" s="158" t="str">
         <f>B17</f>
         <v>Lead Acid Gel/VRLA</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="50"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="166">
+        <v>96</v>
+      </c>
+      <c r="B7" s="159">
         <f>VLOOKUP(B$6,H$12:O$15,2,FALSE)</f>
         <v>0.5</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
-        <v>569</v>
-      </c>
-      <c r="B8" s="166">
+        <v>558</v>
+      </c>
+      <c r="B8" s="159">
         <f>VLOOKUP(B$6,H$12:O$15,4,FALSE)</f>
         <v>0.1</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
-        <v>568</v>
-      </c>
-      <c r="B9" s="166">
+        <v>557</v>
+      </c>
+      <c r="B9" s="159">
         <f>VLOOKUP(B$6,H$12:O$15,3,FALSE)</f>
         <v>0.2</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="166">
+        <v>99</v>
+      </c>
+      <c r="B10" s="159">
         <f>B8</f>
         <v>0.1</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="D10" s="50"/>
-      <c r="H10" s="156" t="s">
-        <v>597</v>
+      <c r="H10" s="149" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
-        <v>543</v>
-      </c>
-      <c r="B11" s="165">
+        <v>532</v>
+      </c>
+      <c r="B11" s="158">
         <f>VLOOKUP(B$6,H$12:O$15,5,FALSE)</f>
         <v>1500</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="163"/>
-      <c r="I11" s="163" t="s">
-        <v>534</v>
-      </c>
-      <c r="J11" s="163" t="s">
-        <v>535</v>
-      </c>
-      <c r="K11" s="163" t="s">
-        <v>536</v>
-      </c>
-      <c r="L11" s="163" t="s">
-        <v>537</v>
+        <v>28</v>
+      </c>
+      <c r="H11" s="156"/>
+      <c r="I11" s="156" t="s">
+        <v>523</v>
+      </c>
+      <c r="J11" s="156" t="s">
+        <v>524</v>
+      </c>
+      <c r="K11" s="156" t="s">
+        <v>525</v>
+      </c>
+      <c r="L11" s="156" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="B12" s="167">
+        <v>167</v>
+      </c>
+      <c r="B12" s="160">
         <f>0.85</f>
         <v>0.85</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H12" s="80" t="s">
-        <v>538</v>
-      </c>
-      <c r="I12" s="158">
+        <v>527</v>
+      </c>
+      <c r="I12" s="151">
         <v>0.5</v>
       </c>
-      <c r="J12" s="158">
+      <c r="J12" s="151">
         <v>0.2</v>
       </c>
-      <c r="K12" s="158">
+      <c r="K12" s="151">
         <v>0.1</v>
       </c>
-      <c r="L12" s="159">
+      <c r="L12" s="152">
         <v>1500</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="B13" s="165">
+        <v>190</v>
+      </c>
+      <c r="B13" s="158">
         <f>'2. System'!B7*51</f>
         <v>357</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>277</v>
-      </c>
-      <c r="H13" s="157" t="s">
-        <v>539</v>
-      </c>
-      <c r="I13" s="158">
+        <v>271</v>
+      </c>
+      <c r="H13" s="150" t="s">
+        <v>528</v>
+      </c>
+      <c r="I13" s="151">
         <v>0.5</v>
       </c>
-      <c r="J13" s="158">
+      <c r="J13" s="151">
         <v>0.2</v>
       </c>
-      <c r="K13" s="158">
+      <c r="K13" s="151">
         <v>0.1</v>
       </c>
-      <c r="L13" s="159">
+      <c r="L13" s="152">
         <v>3000</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H14" s="80" t="s">
-        <v>540</v>
-      </c>
-      <c r="I14" s="158">
+        <v>529</v>
+      </c>
+      <c r="I14" s="151">
         <v>0.8</v>
       </c>
-      <c r="J14" s="158">
+      <c r="J14" s="151">
         <v>1</v>
       </c>
-      <c r="K14" s="158">
+      <c r="K14" s="151">
         <v>0.5</v>
       </c>
-      <c r="L14" s="159">
+      <c r="L14" s="152">
         <v>6000</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="178" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="178"/>
-      <c r="C15" s="178"/>
+      <c r="A15" s="175" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="175"/>
+      <c r="C15" s="175"/>
       <c r="D15" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="H15" s="157" t="s">
-        <v>541</v>
-      </c>
-      <c r="I15" s="158">
+        <v>170</v>
+      </c>
+      <c r="H15" s="150" t="s">
+        <v>530</v>
+      </c>
+      <c r="I15" s="151">
         <v>0.8</v>
       </c>
-      <c r="J15" s="158">
+      <c r="J15" s="151">
         <v>0.2</v>
       </c>
-      <c r="K15" s="158">
+      <c r="K15" s="151">
         <v>0.2</v>
       </c>
-      <c r="L15" s="159">
+      <c r="L15" s="152">
         <v>4500</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="165">
+        <v>94</v>
+      </c>
+      <c r="B16" s="158">
         <f>VLOOKUP('2. System'!B$11,A$36:O$68,5,FALSE)</f>
         <v>12</v>
       </c>
       <c r="C16" s="64" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="165" t="str">
+        <v>95</v>
+      </c>
+      <c r="B17" s="158" t="str">
         <f>VLOOKUP('2. System'!B$11,A$36:O$68,4,FALSE)</f>
         <v>Lead Acid Gel/VRLA</v>
       </c>
       <c r="C17" s="64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
@@ -10067,64 +10072,64 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="165">
+        <v>98</v>
+      </c>
+      <c r="B18" s="158">
         <f>VLOOKUP('2. System'!B$11,A$36:O$68,6,FALSE)</f>
         <v>200</v>
       </c>
       <c r="C18" s="64" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="H18" s="206" t="s">
-        <v>365</v>
-      </c>
-      <c r="I18" s="207"/>
+        <v>210</v>
+      </c>
+      <c r="H18" s="201" t="s">
+        <v>359</v>
+      </c>
+      <c r="I18" s="202"/>
       <c r="J18" s="79" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
-        <v>275</v>
-      </c>
-      <c r="B19" s="165">
+        <v>269</v>
+      </c>
+      <c r="B19" s="158">
         <f>1/B8</f>
         <v>10</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D19" s="50"/>
       <c r="H19" s="80" t="s">
+        <v>355</v>
+      </c>
+      <c r="I19" s="80" t="s">
+        <v>356</v>
+      </c>
+      <c r="J19" s="80" t="s">
         <v>361</v>
       </c>
-      <c r="I19" s="80" t="s">
-        <v>362</v>
-      </c>
-      <c r="J19" s="80" t="s">
-        <v>367</v>
-      </c>
       <c r="R19" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
-        <v>276</v>
-      </c>
-      <c r="B20" s="165">
+        <v>270</v>
+      </c>
+      <c r="B20" s="158">
         <f>B18/B19*B16/SQRT(B12)</f>
         <v>260.31654938238739</v>
       </c>
       <c r="C20" s="64" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H20" s="78">
         <v>0</v>
@@ -10136,22 +10141,22 @@
         <v>12</v>
       </c>
       <c r="N20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
-        <v>271</v>
-      </c>
-      <c r="B21" s="165">
+        <v>265</v>
+      </c>
+      <c r="B21" s="158">
         <f>B18/B19*B16*SQRT(B12)</f>
         <v>221.26906697502929</v>
       </c>
       <c r="C21" s="64" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H21" s="78">
         <v>250</v>
@@ -10163,22 +10168,22 @@
         <v>24</v>
       </c>
       <c r="P21" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="165">
+        <v>109</v>
+      </c>
+      <c r="B22" s="158">
         <f>MAX(VLOOKUP('2. System'!B$11,A$36:O$68,11,FALSE),B9*B16*B18*SQRT(B12))</f>
-        <v>1000</v>
+        <v>442.53813395005864</v>
       </c>
       <c r="C22" s="64" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D22" s="50" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H22" s="78">
         <v>2500</v>
@@ -10192,108 +10197,108 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="B23" s="165">
+        <v>108</v>
+      </c>
+      <c r="B23" s="158">
         <f>B11</f>
         <v>1500</v>
       </c>
       <c r="C23" s="64" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D23" s="50" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="J23" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="165" t="str">
+        <v>62</v>
+      </c>
+      <c r="B24" s="158">
         <f>VLOOKUP('2. System'!B$11,A$36:O$68,14,FALSE)</f>
-        <v>No confident on the data</v>
-      </c>
-      <c r="C24" s="157"/>
+        <v>0</v>
+      </c>
+      <c r="C24" s="150"/>
     </row>
     <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="153" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="153"/>
-      <c r="C26" s="153"/>
+      <c r="A26" s="146" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="146"/>
+      <c r="C26" s="146"/>
       <c r="D26" s="20" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="164" t="s">
-        <v>351</v>
+      <c r="A27" s="157" t="s">
+        <v>345</v>
       </c>
       <c r="B27" s="66">
         <f>(B4*B3)/(B16*B18)/B12</f>
-        <v>3.2941176470588234</v>
+        <v>8.5647058823529409</v>
       </c>
       <c r="C27" s="64" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D27" s="50" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="164" t="s">
-        <v>352</v>
+      <c r="A28" s="157" t="s">
+        <v>346</v>
       </c>
       <c r="B28" s="66">
         <f>(B5*(B3/24))/(B16*B18*B7)</f>
-        <v>3.58</v>
+        <v>14.78</v>
       </c>
       <c r="C28" s="64" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D28" s="50" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="164" t="s">
-        <v>363</v>
+      <c r="A29" s="157" t="s">
+        <v>357</v>
       </c>
       <c r="B29" s="66">
-        <f>IF(B4&lt;I20,J20,IF(B4&lt;I21,J21,J22))</f>
-        <v>24</v>
+        <f>IF('1. Appliances'!L3*1000&lt;I20,J20,IF('1. Appliances'!L3*1000&lt;I21,J21,J22))</f>
+        <v>48</v>
       </c>
       <c r="C29" s="64" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D29" s="50" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="164" t="s">
-        <v>575</v>
+      <c r="A30" s="157" t="s">
+        <v>564</v>
       </c>
       <c r="B30" s="66">
         <f>B11/B13</f>
         <v>4.2016806722689077</v>
       </c>
       <c r="C30" s="64" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="D30" s="50" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N31" s="51" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="P31" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -10302,56 +10307,56 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A34" s="177" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="177"/>
-      <c r="C34" s="177"/>
-      <c r="D34" s="177"/>
-      <c r="E34" s="177"/>
+      <c r="A34" s="173" t="s">
+        <v>600</v>
+      </c>
+      <c r="B34" s="173"/>
+      <c r="C34" s="173"/>
+      <c r="D34" s="173"/>
+      <c r="E34" s="173"/>
       <c r="F34" s="50" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B35" s="24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F35" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="J35" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="K35" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="G35" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="H35" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="I35" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="J35" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="K35" s="24" t="s">
-        <v>110</v>
-      </c>
       <c r="L35" s="24" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M35" s="24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N35" s="26" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -10360,13 +10365,13 @@
         <v>Vision CG12-200XA</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="E36" s="22">
         <v>12</v>
@@ -10393,10 +10398,10 @@
         <v>600</v>
       </c>
       <c r="M36" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="N36" s="22" t="s">
         <v>107</v>
-      </c>
-      <c r="N36" s="22" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -10405,13 +10410,13 @@
         <v>Victron GEL 24 OPzV 3000 turbular plate 2V cells battery</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="E37" s="23">
         <v>2</v>
@@ -10427,28 +10432,54 @@
       <c r="L37" s="23">
         <v>2500</v>
       </c>
-      <c r="M37" s="162" t="s">
-        <v>571</v>
-      </c>
-      <c r="N37" s="162"/>
+      <c r="M37" s="155" t="s">
+        <v>560</v>
+      </c>
+      <c r="N37" s="155"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
+        <v>Rita DG12-200</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>593</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>594</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>527</v>
+      </c>
+      <c r="E38" s="22">
+        <v>12</v>
+      </c>
+      <c r="F38" s="22">
+        <v>200</v>
+      </c>
+      <c r="G38" s="22">
+        <f>1.93*6</f>
+        <v>11.58</v>
+      </c>
+      <c r="H38" s="22">
+        <f>2.15*6</f>
+        <v>12.899999999999999</v>
+      </c>
+      <c r="I38" s="22">
+        <v>13.7</v>
+      </c>
+      <c r="J38" s="22">
+        <v>10</v>
+      </c>
+      <c r="K38" s="22">
+        <v>300</v>
+      </c>
+      <c r="L38" s="22">
+        <v>1400</v>
+      </c>
+      <c r="M38" s="165" t="s">
+        <v>595</v>
+      </c>
       <c r="N38" s="22"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -10955,11 +10986,12 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="M37" r:id="rId1"/>
+    <hyperlink ref="M38" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -10967,8 +10999,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:P29"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="1">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10985,311 +11020,309 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="177" t="s">
-        <v>198</v>
-      </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
+      <c r="A1" s="173" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
       <c r="D2" s="20" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B3" s="14">
         <f>'1. Appliances'!E28</f>
-        <v>840</v>
+        <v>2184</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B4" s="14">
         <f>'1. Appliances'!F28</f>
-        <v>840</v>
+        <v>2184</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B5" s="13">
         <v>1.1000000000000001</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="214" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="214"/>
-      <c r="C7" s="214"/>
-      <c r="D7" s="214"/>
+      <c r="A7" s="209" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="209"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
       <c r="E7" s="20" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="211" t="s">
-        <v>140</v>
+      <c r="A8" s="206" t="s">
+        <v>135</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C8" s="54">
         <f>VLOOKUP('2. System'!B$12,A$27:P$59,4,FALSE)</f>
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="213"/>
+      <c r="A9" s="208"/>
       <c r="B9" s="55" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C9" s="56">
         <f>VLOOKUP('2. System'!B$12,A$27:P$59,5,FALSE)</f>
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="154" t="s">
-        <v>520</v>
+      <c r="A10" s="147" t="s">
+        <v>510</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="C10" s="56">
         <f>VLOOKUP('2. System'!B$12,A$27:P$59,7,FALSE)</f>
-        <v>4650</v>
+        <v>6000</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>522</v>
-      </c>
-      <c r="I10" s="155" t="s">
-        <v>560</v>
+        <v>512</v>
+      </c>
+      <c r="I10" s="148" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="211" t="s">
-        <v>141</v>
+      <c r="A11" s="206" t="s">
+        <v>136</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C11" s="54">
         <f>VLOOKUP('2. System'!B$12,A$27:P$59,8,FALSE)</f>
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="212"/>
+      <c r="A12" s="207"/>
       <c r="B12" s="52" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C12" s="57">
         <f>VLOOKUP('2. System'!B$12,A$27:P$59,9,FALSE)</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="212"/>
+      <c r="A13" s="207"/>
       <c r="B13" s="52" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C13" s="57">
         <f>VLOOKUP('2. System'!B$12,A$27:P$59,10,FALSE)</f>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="213"/>
+      <c r="A14" s="208"/>
       <c r="B14" s="55" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C14" s="56">
         <f>VLOOKUP('2. System'!B$12,A$27:P$59,11,FALSE)</f>
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="211" t="s">
-        <v>142</v>
+      <c r="A15" s="206" t="s">
+        <v>137</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C15" s="54">
         <f>VLOOKUP('2. System'!B$12,A$27:P$59,12,FALSE)</f>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E15" s="50" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="212"/>
+      <c r="A16" s="207"/>
       <c r="B16" s="52" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C16" s="57">
         <f>VLOOKUP('2. System'!B$12,A$27:P$59,14,FALSE)</f>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="213"/>
+      <c r="A17" s="208"/>
       <c r="B17" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="56" t="str">
+        <v>62</v>
+      </c>
+      <c r="C17" s="56">
         <f>VLOOKUP('2. System'!B$12,A$27:P$59,16,FALSE)</f>
-        <v>"Missing information in datasheet:
-No clear data on Solar input constraints (V_PV start), 
-no surge power"</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="199" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="199"/>
-      <c r="C19" s="199"/>
+      <c r="A19" s="194" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="194"/>
+      <c r="C19" s="194"/>
       <c r="D19" s="20" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="164" t="s">
-        <v>577</v>
+      <c r="A20" s="157" t="s">
+        <v>566</v>
       </c>
       <c r="B20" s="65">
         <f>CEILING('1. Appliances'!E28/'2bis. Hyb. Inverter'!C8,1)</f>
         <v>1</v>
       </c>
       <c r="C20" s="64" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="164" t="s">
-        <v>524</v>
+      <c r="A21" s="157" t="s">
+        <v>513</v>
       </c>
       <c r="B21" s="65">
         <f>CEILING('1. Appliances'!$L$3*1000/$C$10,1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" s="64" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="164" t="s">
-        <v>525</v>
+      <c r="A22" s="157" t="s">
+        <v>514</v>
       </c>
       <c r="B22" s="65">
         <f>MAX(B20:B21)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" s="64" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D22" s="50" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="177" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="177"/>
-      <c r="C24" s="177"/>
-      <c r="D24" s="177"/>
-      <c r="E24" s="177"/>
+      <c r="A24" s="173" t="s">
+        <v>601</v>
+      </c>
+      <c r="B24" s="173"/>
+      <c r="C24" s="173"/>
+      <c r="D24" s="173"/>
+      <c r="E24" s="173"/>
       <c r="F24" s="50" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -11300,70 +11333,70 @@
         <v>13</v>
       </c>
       <c r="E25" s="29"/>
-      <c r="F25" s="208" t="s">
-        <v>267</v>
-      </c>
-      <c r="G25" s="209"/>
-      <c r="H25" s="209"/>
-      <c r="I25" s="209"/>
-      <c r="J25" s="209"/>
-      <c r="K25" s="210"/>
+      <c r="F25" s="203" t="s">
+        <v>261</v>
+      </c>
+      <c r="G25" s="204"/>
+      <c r="H25" s="204"/>
+      <c r="I25" s="204"/>
+      <c r="J25" s="204"/>
+      <c r="K25" s="205"/>
       <c r="L25" s="28" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="M25" s="40"/>
       <c r="N25" s="29"/>
       <c r="O25" s="28" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="P25" s="29"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="41"/>
       <c r="B26" s="24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K26" s="31" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L26" s="30" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="M26" s="24" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="N26" s="31" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="O26" s="30" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P26" s="42" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="45" x14ac:dyDescent="0.25">
@@ -11372,10 +11405,10 @@
         <v>Solaredge SE3000H</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D27" s="32">
         <v>3000</v>
@@ -11405,10 +11438,10 @@
         <v>60</v>
       </c>
       <c r="O27" s="32" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="P27" s="43" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="45" x14ac:dyDescent="0.25">
@@ -11417,10 +11450,10 @@
         <v>Alpha Outback Energy SPC III 3000-24</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D28" s="34">
         <v>3000</v>
@@ -11429,7 +11462,7 @@
         <v>6000</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G28" s="23">
         <v>2000</v>
@@ -11452,30 +11485,56 @@
         <v>60</v>
       </c>
       <c r="O28" s="34" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P28" s="44" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="33"/>
+        <v>Raggie RG-MH5500W Plus</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>596</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>597</v>
+      </c>
+      <c r="D29" s="32">
+        <v>5500</v>
+      </c>
+      <c r="E29" s="33">
+        <v>11000</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" s="22">
+        <v>6000</v>
+      </c>
+      <c r="H29" s="22">
+        <v>500</v>
+      </c>
+      <c r="I29" s="22">
+        <v>120</v>
+      </c>
+      <c r="J29" s="22">
+        <v>120</v>
+      </c>
+      <c r="K29" s="33">
+        <v>100</v>
+      </c>
+      <c r="L29" s="32">
+        <v>48</v>
+      </c>
+      <c r="M29" s="22">
+        <v>54</v>
+      </c>
+      <c r="N29" s="33">
+        <v>100</v>
+      </c>
       <c r="O29" s="32"/>
       <c r="P29" s="43"/>
     </row>
@@ -12047,10 +12106,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="1">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12059,125 +12121,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="215" t="s">
-        <v>598</v>
-      </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
+      <c r="A1" s="210" t="s">
+        <v>586</v>
+      </c>
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="178" t="s">
-        <v>586</v>
-      </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
+      <c r="A2" s="175" t="s">
+        <v>575</v>
+      </c>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
-        <v>590</v>
-      </c>
-      <c r="B3" s="171">
+        <v>579</v>
+      </c>
+      <c r="B3" s="164">
         <f>'1. Appliances'!E24</f>
-        <v>1050</v>
+        <v>2730</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
-        <v>589</v>
-      </c>
-      <c r="B4" s="171">
+        <v>578</v>
+      </c>
+      <c r="B4" s="164">
         <f>'1. Appliances'!F24</f>
-        <v>1050</v>
+        <v>2730</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
-        <v>591</v>
-      </c>
-      <c r="B5" s="171">
+        <v>580</v>
+      </c>
+      <c r="B5" s="164">
         <f>'1. Appliances'!I24/24</f>
-        <v>537</v>
+        <v>2217</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="178" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
+      <c r="A6" s="175" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="175"/>
+      <c r="C6" s="175"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="B7" s="171">
+        <v>238</v>
+      </c>
+      <c r="B7" s="164">
         <f>'2. System'!B35</f>
         <v>4.2016806722689077</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="D7" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
-        <v>587</v>
-      </c>
-      <c r="B8" s="171">
+        <v>576</v>
+      </c>
+      <c r="B8" s="164">
         <f>'2. System'!B34</f>
-        <v>5.37</v>
+        <v>8.6603518267929633</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="178" t="s">
-        <v>600</v>
-      </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="178"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>604</v>
-      </c>
+      <c r="A9" s="175" t="s">
+        <v>588</v>
+      </c>
+      <c r="B9" s="175"/>
+      <c r="C9" s="175"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>602</v>
-      </c>
-      <c r="B12" s="8">
-        <f>20*13*0.25</f>
-        <v>65</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>607</v>
-      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -12192,842 +12231,836 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D16"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="1">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="148" customWidth="1"/>
-    <col min="2" max="2" width="60.7109375" style="149" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="148"/>
-    <col min="4" max="4" width="7.42578125" style="150" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="150" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="148" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="141" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" style="142" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="141"/>
+    <col min="4" max="4" width="7.42578125" style="143" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="143" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="141" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="225" t="s">
-        <v>601</v>
-      </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="227"/>
-    </row>
-    <row r="2" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="220" t="s">
+        <v>589</v>
+      </c>
+      <c r="B1" s="221"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="221"/>
+      <c r="F1" s="222"/>
+    </row>
+    <row r="2" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="88" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B2" s="88" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C2" s="89" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D2" s="88" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E2" s="90" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F2" s="90" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+      <c r="H2" s="166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="91" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B3" s="92" t="s">
-        <v>448</v>
+        <v>598</v>
       </c>
       <c r="C3" s="93"/>
       <c r="D3" s="93"/>
       <c r="E3" s="93"/>
       <c r="F3" s="94"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" s="166" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="95" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B4" s="96" t="str">
         <f>ROUND('2bis. Panels'!B9,0)&amp;"W solar panel such as "&amp;'2. System'!B10:C10&amp;". (see tech specs)"</f>
-        <v>311W solar panel such as FUTURASUN FU 310 P. (see tech specs)</v>
+        <v>486W solar panel such as risen  RSM150-8-485M. (see tech specs)</v>
       </c>
       <c r="C4" s="97" t="s">
-        <v>450</v>
-      </c>
-      <c r="D4" s="151">
+        <v>443</v>
+      </c>
+      <c r="D4" s="144">
         <f>'2. System'!B22</f>
-        <v>14</v>
-      </c>
-      <c r="E4" s="98">
-        <f>310*0.44</f>
-        <v>136.4</v>
-      </c>
-      <c r="F4" s="99">
+        <v>12</v>
+      </c>
+      <c r="E4" s="228">
+        <v>200</v>
+      </c>
+      <c r="F4" s="98">
         <f>E4*D4</f>
-        <v>1909.6000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="95" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B5" s="96" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C5" s="97" t="s">
-        <v>453</v>
-      </c>
-      <c r="D5" s="151">
+        <v>446</v>
+      </c>
+      <c r="D5" s="144">
         <f>2*D4</f>
-        <v>28</v>
-      </c>
-      <c r="E5" s="100">
-        <v>10</v>
-      </c>
-      <c r="F5" s="99">
+        <v>24</v>
+      </c>
+      <c r="E5" s="228">
+        <v>6</v>
+      </c>
+      <c r="F5" s="98">
         <f t="shared" ref="F5:F18" si="0">E5*D5</f>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="95"/>
       <c r="B6" s="96" t="s">
+        <v>447</v>
+      </c>
+      <c r="C6" s="97" t="s">
+        <v>446</v>
+      </c>
+      <c r="D6" s="144">
+        <f>20*SUM(D11:D11)</f>
+        <v>60</v>
+      </c>
+      <c r="E6" s="228">
+        <v>6</v>
+      </c>
+      <c r="F6" s="98">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="95" t="s">
+        <v>448</v>
+      </c>
+      <c r="B7" s="96" t="s">
+        <v>449</v>
+      </c>
+      <c r="C7" s="97" t="s">
+        <v>446</v>
+      </c>
+      <c r="D7" s="145">
+        <f>10+D4*1.5</f>
+        <v>28</v>
+      </c>
+      <c r="E7" s="228">
+        <v>3</v>
+      </c>
+      <c r="F7" s="98">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="95" t="s">
+        <v>450</v>
+      </c>
+      <c r="B8" s="96" t="s">
+        <v>451</v>
+      </c>
+      <c r="C8" s="97" t="s">
+        <v>443</v>
+      </c>
+      <c r="D8" s="145">
+        <f>1*SUM(D11:D11)</f>
+        <v>3</v>
+      </c>
+      <c r="E8" s="228">
+        <v>130</v>
+      </c>
+      <c r="F8" s="98">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="95" t="s">
+        <v>452</v>
+      </c>
+      <c r="B9" s="96" t="s">
+        <v>453</v>
+      </c>
+      <c r="C9" s="97" t="s">
+        <v>446</v>
+      </c>
+      <c r="D9" s="145">
+        <f>30*SUM(D11:D11)</f>
+        <v>90</v>
+      </c>
+      <c r="E9" s="228">
+        <v>6</v>
+      </c>
+      <c r="F9" s="98">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A10" s="95" t="s">
         <v>454</v>
       </c>
-      <c r="C6" s="97" t="s">
-        <v>453</v>
-      </c>
-      <c r="D6" s="151">
-        <f>20*SUM(D11:D11)</f>
-        <v>20</v>
-      </c>
-      <c r="E6" s="100">
-        <v>15</v>
-      </c>
-      <c r="F6" s="99">
+      <c r="B10" s="96" t="s">
+        <v>455</v>
+      </c>
+      <c r="C10" s="97" t="s">
+        <v>443</v>
+      </c>
+      <c r="D10" s="145">
+        <f>1*SUM(D11:D11)+1</f>
+        <v>4</v>
+      </c>
+      <c r="E10" s="228">
+        <v>75</v>
+      </c>
+      <c r="F10" s="98">
+        <f>E10*D10</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="95" t="s">
+        <v>504</v>
+      </c>
+      <c r="B11" s="96" t="str">
+        <f>"Supply and install an hybrid inverter with in-built controller of AC output power of "&amp;'2bis. Hyb. Inverter'!C8/1000&amp;" kW or more, such as "&amp;'2. System'!B12:C12&amp;" or equally approved. See tabular technical specifications for the ones inverter must respect."</f>
+        <v>Supply and install an hybrid inverter with in-built controller of AC output power of 5.5 kW or more, such as Raggie RG-MH5500W Plus or equally approved. See tabular technical specifications for the ones inverter must respect.</v>
+      </c>
+      <c r="C11" s="97" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" s="145">
+        <f>'2. System'!B18</f>
+        <v>3</v>
+      </c>
+      <c r="E11" s="228">
+        <v>2174</v>
+      </c>
+      <c r="F11" s="98">
+        <f t="shared" si="0"/>
+        <v>6522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="95" t="s">
+        <v>456</v>
+      </c>
+      <c r="B12" s="96" t="str">
+        <f>'2bis. Batteries'!B16&amp;"V, "&amp;'2bis. Batteries'!B18&amp;"Ah, lifetime of "&amp;'2bis. Batteries'!B23&amp;" cycles at "&amp;'2bis. Batteries'!B7*100&amp;"% depth of Discharge at 25°C. Such as "&amp;'2. System'!B11:C11</f>
+        <v>12V, 200Ah, lifetime of 1500 cycles at 50% depth of Discharge at 25°C. Such as Rita DG12-200</v>
+      </c>
+      <c r="C12" s="97" t="s">
+        <v>443</v>
+      </c>
+      <c r="D12" s="145">
+        <f>'2. System'!B29</f>
+        <v>16</v>
+      </c>
+      <c r="E12" s="228">
+        <v>408</v>
+      </c>
+      <c r="F12" s="98">
+        <f t="shared" si="0"/>
+        <v>6528</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="95" t="s">
+        <v>457</v>
+      </c>
+      <c r="B13" s="96" t="s">
+        <v>458</v>
+      </c>
+      <c r="C13" s="97" t="s">
+        <v>443</v>
+      </c>
+      <c r="D13" s="145">
+        <f>SUM(D11:D11)</f>
+        <v>3</v>
+      </c>
+      <c r="E13" s="228">
+        <v>35</v>
+      </c>
+      <c r="F13" s="98">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="95" t="s">
+        <v>459</v>
+      </c>
+      <c r="B14" s="96" t="s">
+        <v>460</v>
+      </c>
+      <c r="C14" s="97" t="s">
+        <v>443</v>
+      </c>
+      <c r="D14" s="145">
+        <f>ROUND(D12/8,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E14" s="228">
+        <v>150</v>
+      </c>
+      <c r="F14" s="98">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
-        <v>455</v>
-      </c>
-      <c r="B7" s="96" t="s">
-        <v>456</v>
-      </c>
-      <c r="C7" s="97" t="s">
-        <v>453</v>
-      </c>
-      <c r="D7" s="152">
-        <f>10+D4*1.5</f>
-        <v>31</v>
-      </c>
-      <c r="E7" s="100">
-        <v>10</v>
-      </c>
-      <c r="F7" s="99">
-        <f t="shared" si="0"/>
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="95" t="s">
-        <v>457</v>
-      </c>
-      <c r="B8" s="96" t="s">
-        <v>458</v>
-      </c>
-      <c r="C8" s="97" t="s">
-        <v>450</v>
-      </c>
-      <c r="D8" s="152">
-        <f>1*SUM(D11:D11)</f>
-        <v>1</v>
-      </c>
-      <c r="E8" s="100">
-        <v>200</v>
-      </c>
-      <c r="F8" s="99">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="95" t="s">
-        <v>459</v>
-      </c>
-      <c r="B9" s="96" t="s">
-        <v>460</v>
-      </c>
-      <c r="C9" s="97" t="s">
-        <v>453</v>
-      </c>
-      <c r="D9" s="152">
-        <f>30*SUM(D11:D11)</f>
+    <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="95" t="s">
+        <v>461</v>
+      </c>
+      <c r="B15" s="96" t="s">
+        <v>462</v>
+      </c>
+      <c r="C15" s="97" t="s">
+        <v>446</v>
+      </c>
+      <c r="D15" s="145">
+        <f>10*SUM(D11:D11)</f>
         <v>30</v>
       </c>
-      <c r="E9" s="100">
-        <v>10</v>
-      </c>
-      <c r="F9" s="99">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A10" s="95" t="s">
-        <v>461</v>
-      </c>
-      <c r="B10" s="96" t="s">
-        <v>462</v>
-      </c>
-      <c r="C10" s="97" t="s">
-        <v>450</v>
-      </c>
-      <c r="D10" s="152">
-        <f>1*SUM(D11:D11)</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="100">
-        <v>80</v>
-      </c>
-      <c r="F10" s="99">
-        <f>E10*D10</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="95" t="s">
-        <v>514</v>
-      </c>
-      <c r="B11" s="96" t="str">
-        <f>"Supply and install an hybrid inverter with in-built controller of AC output power of "&amp;'2bis. Hyb. Inverter'!C8/1000&amp;" kW or more, such as "&amp;'2. System'!B12:C12&amp;" or equally approved. See tabular technical specifications for the ones inverter must respect."</f>
-        <v>Supply and install an hybrid inverter with in-built controller of AC output power of 3 kW or more, such as Solaredge SE3000H or equally approved. See tabular technical specifications for the ones inverter must respect.</v>
-      </c>
-      <c r="C11" s="97" t="s">
-        <v>450</v>
-      </c>
-      <c r="D11" s="152">
-        <f>'2. System'!B18</f>
-        <v>1</v>
-      </c>
-      <c r="E11" s="100">
-        <v>7000</v>
-      </c>
-      <c r="F11" s="99">
-        <f t="shared" si="0"/>
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95" t="s">
-        <v>463</v>
-      </c>
-      <c r="B12" s="96" t="str">
-        <f>'2bis. Batteries'!B16&amp;"V, "&amp;'2bis. Batteries'!B18&amp;"Ah, lifetime of "&amp;'2bis. Batteries'!B23&amp;" cycles at "&amp;'2bis. Batteries'!B7*100&amp;"% depth of Discharge at 25°C. Such as "&amp;'2. System'!B11:C11</f>
-        <v>12V, 200Ah, lifetime of 1500 cycles at 50% depth of Discharge at 25°C. Such as Vision CG12-200XA</v>
-      </c>
-      <c r="C12" s="97" t="s">
-        <v>450</v>
-      </c>
-      <c r="D12" s="152">
-        <f>'2. System'!B29</f>
-        <v>12</v>
-      </c>
-      <c r="E12" s="100">
-        <f>0.105*200*12</f>
-        <v>252</v>
-      </c>
-      <c r="F12" s="99">
-        <f t="shared" si="0"/>
-        <v>3024</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="95" t="s">
-        <v>464</v>
-      </c>
-      <c r="B13" s="96" t="s">
-        <v>465</v>
-      </c>
-      <c r="C13" s="97" t="s">
-        <v>450</v>
-      </c>
-      <c r="D13" s="152">
-        <f>SUM(D11:D11)</f>
-        <v>1</v>
-      </c>
-      <c r="E13" s="100">
-        <v>100</v>
-      </c>
-      <c r="F13" s="99">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="95" t="s">
-        <v>466</v>
-      </c>
-      <c r="B14" s="96" t="s">
-        <v>467</v>
-      </c>
-      <c r="C14" s="97" t="s">
-        <v>450</v>
-      </c>
-      <c r="D14" s="152">
-        <f>ROUND(D12/8,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E14" s="100">
-        <v>120</v>
-      </c>
-      <c r="F14" s="99">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="95" t="s">
-        <v>468</v>
-      </c>
-      <c r="B15" s="96" t="s">
-        <v>469</v>
-      </c>
-      <c r="C15" s="97" t="s">
-        <v>453</v>
-      </c>
-      <c r="D15" s="152">
-        <f>10*SUM(D11:D11)</f>
-        <v>10</v>
-      </c>
-      <c r="E15" s="100">
-        <v>20</v>
-      </c>
-      <c r="F15" s="99">
+      <c r="E15" s="228">
+        <v>6</v>
+      </c>
+      <c r="F15" s="98">
         <f>E15*D15</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="95"/>
       <c r="B16" s="96" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C16" s="97" t="s">
-        <v>450</v>
-      </c>
-      <c r="D16" s="152">
+        <v>443</v>
+      </c>
+      <c r="D16" s="145">
         <f>2*IF('2. System'!B33&gt;1,1,0)</f>
         <v>2</v>
       </c>
-      <c r="E16" s="100">
+      <c r="E16" s="228">
         <v>30</v>
       </c>
-      <c r="F16" s="99">
+      <c r="F16" s="98">
         <f>E16*D16</f>
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="95" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B17" s="96" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>450</v>
-      </c>
-      <c r="D17" s="152">
+        <v>443</v>
+      </c>
+      <c r="D17" s="145">
         <f>1*SUM(D11:D11)</f>
+        <v>3</v>
+      </c>
+      <c r="E17" s="228">
+        <v>130</v>
+      </c>
+      <c r="F17" s="98">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="95" t="s">
+        <v>465</v>
+      </c>
+      <c r="B18" s="96" t="s">
+        <v>466</v>
+      </c>
+      <c r="C18" s="97" t="s">
+        <v>443</v>
+      </c>
+      <c r="D18" s="99">
         <v>1</v>
       </c>
-      <c r="E17" s="100">
+      <c r="E18" s="228">
         <v>400</v>
       </c>
-      <c r="F17" s="99">
+      <c r="F18" s="98">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="95" t="s">
-        <v>472</v>
-      </c>
-      <c r="B18" s="96" t="s">
-        <v>473</v>
-      </c>
-      <c r="C18" s="97" t="s">
-        <v>450</v>
-      </c>
-      <c r="D18" s="101">
-        <v>1</v>
-      </c>
-      <c r="E18" s="100">
-        <v>500</v>
-      </c>
-      <c r="F18" s="99">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-    </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="91"/>
-      <c r="B19" s="102" t="s">
-        <v>474</v>
-      </c>
-      <c r="C19" s="228"/>
-      <c r="D19" s="229"/>
-      <c r="E19" s="230"/>
-      <c r="F19" s="103">
+      <c r="B19" s="100" t="s">
+        <v>467</v>
+      </c>
+      <c r="C19" s="223"/>
+      <c r="D19" s="224"/>
+      <c r="E19" s="225"/>
+      <c r="F19" s="101">
         <f>SUM(F4:F18)</f>
-        <v>14903.6</v>
+        <v>18703</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="91" t="s">
+        <v>468</v>
+      </c>
+      <c r="B20" s="102" t="s">
+        <v>610</v>
+      </c>
+      <c r="C20" s="214"/>
+      <c r="D20" s="215"/>
+      <c r="E20" s="215"/>
+      <c r="F20" s="216"/>
+    </row>
+    <row r="21" spans="1:6" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="103" t="s">
+        <v>469</v>
+      </c>
+      <c r="B21" s="104" t="s">
+        <v>470</v>
+      </c>
+      <c r="C21" s="105" t="s">
+        <v>443</v>
+      </c>
+      <c r="D21" s="106">
+        <v>1</v>
+      </c>
+      <c r="E21" s="228">
+        <v>35</v>
+      </c>
+      <c r="F21" s="107">
+        <f>E21*D21</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="102" x14ac:dyDescent="0.25">
+      <c r="A22" s="103" t="s">
+        <v>471</v>
+      </c>
+      <c r="B22" s="108" t="s">
+        <v>472</v>
+      </c>
+      <c r="C22" s="105" t="s">
+        <v>473</v>
+      </c>
+      <c r="D22" s="106">
+        <v>1</v>
+      </c>
+      <c r="E22" s="228">
+        <v>10</v>
+      </c>
+      <c r="F22" s="107">
+        <f t="shared" ref="F22:F24" si="1">E22*D22</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="103" t="s">
+        <v>474</v>
+      </c>
+      <c r="B23" s="109" t="s">
         <v>475</v>
       </c>
-      <c r="B20" s="104" t="s">
+      <c r="C23" s="97" t="s">
+        <v>443</v>
+      </c>
+      <c r="D23" s="99">
+        <v>1</v>
+      </c>
+      <c r="E23" s="228">
+        <v>35</v>
+      </c>
+      <c r="F23" s="107">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="103" t="s">
         <v>476</v>
       </c>
-      <c r="C20" s="219"/>
-      <c r="D20" s="220"/>
-      <c r="E20" s="220"/>
-      <c r="F20" s="221"/>
-    </row>
-    <row r="21" spans="1:6" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="105" t="s">
+      <c r="B24" s="110" t="s">
         <v>477</v>
       </c>
-      <c r="B21" s="106" t="s">
+      <c r="C24" s="111" t="s">
+        <v>443</v>
+      </c>
+      <c r="D24" s="112">
+        <v>1</v>
+      </c>
+      <c r="E24" s="228">
+        <v>35</v>
+      </c>
+      <c r="F24" s="107">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="113"/>
+      <c r="B25" s="100" t="s">
+        <v>467</v>
+      </c>
+      <c r="C25" s="223"/>
+      <c r="D25" s="224"/>
+      <c r="E25" s="225"/>
+      <c r="F25" s="101">
+        <f>SUM(F21:F24)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="91" t="s">
         <v>478</v>
       </c>
-      <c r="C21" s="107" t="s">
-        <v>450</v>
-      </c>
-      <c r="D21" s="108">
+      <c r="B26" s="114" t="s">
+        <v>479</v>
+      </c>
+      <c r="C26" s="214"/>
+      <c r="D26" s="215"/>
+      <c r="E26" s="215"/>
+      <c r="F26" s="216"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="115" t="s">
+        <v>480</v>
+      </c>
+      <c r="B27" s="116" t="s">
+        <v>481</v>
+      </c>
+      <c r="C27" s="117" t="s">
+        <v>443</v>
+      </c>
+      <c r="D27" s="118">
+        <v>2</v>
+      </c>
+      <c r="E27" s="228">
+        <v>41</v>
+      </c>
+      <c r="F27" s="119">
+        <f>E27*D27</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="115" t="s">
+        <v>482</v>
+      </c>
+      <c r="B28" s="86" t="s">
+        <v>483</v>
+      </c>
+      <c r="C28" s="117" t="s">
+        <v>443</v>
+      </c>
+      <c r="D28" s="118">
         <v>1</v>
       </c>
-      <c r="E21" s="109">
-        <v>50</v>
-      </c>
-      <c r="F21" s="110">
-        <f>E21*D21</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="102" x14ac:dyDescent="0.25">
-      <c r="A22" s="105" t="s">
-        <v>479</v>
-      </c>
-      <c r="B22" s="111" t="s">
-        <v>480</v>
-      </c>
-      <c r="C22" s="107" t="s">
-        <v>481</v>
-      </c>
-      <c r="D22" s="108">
+      <c r="E28" s="228">
+        <v>3</v>
+      </c>
+      <c r="F28" s="119">
+        <f>E28*D28</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="115" t="s">
+        <v>484</v>
+      </c>
+      <c r="B29" s="120" t="s">
+        <v>485</v>
+      </c>
+      <c r="C29" s="121" t="s">
+        <v>446</v>
+      </c>
+      <c r="D29" s="122">
+        <v>25</v>
+      </c>
+      <c r="E29" s="228">
+        <v>13</v>
+      </c>
+      <c r="F29" s="119">
+        <f t="shared" ref="F29:F34" si="2">E29*D29</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="115" t="s">
+        <v>486</v>
+      </c>
+      <c r="B30" s="120" t="s">
+        <v>487</v>
+      </c>
+      <c r="C30" s="121" t="s">
+        <v>443</v>
+      </c>
+      <c r="D30" s="122">
         <v>1</v>
       </c>
-      <c r="E22" s="109">
-        <v>70</v>
-      </c>
-      <c r="F22" s="110">
-        <f t="shared" ref="F22:F24" si="1">E22*D22</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="105" t="s">
-        <v>482</v>
-      </c>
-      <c r="B23" s="112" t="s">
-        <v>483</v>
-      </c>
-      <c r="C23" s="97" t="s">
-        <v>450</v>
-      </c>
-      <c r="D23" s="101">
+      <c r="E30" s="228">
+        <v>72</v>
+      </c>
+      <c r="F30" s="119">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="115" t="s">
+        <v>488</v>
+      </c>
+      <c r="B31" s="123" t="s">
+        <v>489</v>
+      </c>
+      <c r="C31" s="121" t="s">
+        <v>443</v>
+      </c>
+      <c r="D31" s="122">
         <v>1</v>
       </c>
-      <c r="E23" s="100">
-        <v>100</v>
-      </c>
-      <c r="F23" s="110">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="105" t="s">
-        <v>484</v>
-      </c>
-      <c r="B24" s="113" t="s">
-        <v>485</v>
-      </c>
-      <c r="C24" s="114" t="s">
-        <v>450</v>
-      </c>
-      <c r="D24" s="115">
+      <c r="E31" s="228">
+        <v>43</v>
+      </c>
+      <c r="F31" s="119">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="115" t="s">
+        <v>490</v>
+      </c>
+      <c r="B32" s="124" t="s">
+        <v>491</v>
+      </c>
+      <c r="C32" s="121" t="s">
+        <v>443</v>
+      </c>
+      <c r="D32" s="125">
         <v>1</v>
       </c>
-      <c r="E24" s="116">
-        <v>100</v>
-      </c>
-      <c r="F24" s="110">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="117"/>
-      <c r="B25" s="102" t="s">
-        <v>474</v>
-      </c>
-      <c r="C25" s="228"/>
-      <c r="D25" s="229"/>
-      <c r="E25" s="230"/>
-      <c r="F25" s="103">
-        <f>SUM(F21:F24)</f>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="91" t="s">
-        <v>486</v>
-      </c>
-      <c r="B26" s="118" t="s">
-        <v>487</v>
-      </c>
-      <c r="C26" s="231"/>
-      <c r="D26" s="232"/>
-      <c r="E26" s="232"/>
-      <c r="F26" s="233"/>
-    </row>
-    <row r="27" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="91" t="s">
-        <v>488</v>
-      </c>
-      <c r="B27" s="119" t="s">
-        <v>489</v>
-      </c>
-      <c r="C27" s="219"/>
-      <c r="D27" s="220"/>
-      <c r="E27" s="220"/>
-      <c r="F27" s="221"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="120" t="s">
-        <v>490</v>
-      </c>
-      <c r="B28" s="121" t="s">
-        <v>491</v>
-      </c>
-      <c r="C28" s="122" t="s">
-        <v>450</v>
-      </c>
-      <c r="D28" s="123">
-        <v>2</v>
-      </c>
-      <c r="E28" s="124">
-        <v>40</v>
-      </c>
-      <c r="F28" s="125">
-        <f>E28*D28</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="120" t="s">
+      <c r="E32" s="228">
+        <v>9</v>
+      </c>
+      <c r="F32" s="119">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="115" t="s">
         <v>492</v>
       </c>
-      <c r="B29" s="86" t="s">
+      <c r="B33" s="126" t="s">
         <v>493</v>
       </c>
-      <c r="C29" s="122" t="s">
-        <v>450</v>
-      </c>
-      <c r="D29" s="123">
+      <c r="C33" s="121" t="s">
+        <v>443</v>
+      </c>
+      <c r="D33" s="125">
+        <v>4</v>
+      </c>
+      <c r="E33" s="228">
+        <v>35</v>
+      </c>
+      <c r="F33" s="119">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="115" t="s">
+        <v>494</v>
+      </c>
+      <c r="B34" s="127" t="s">
+        <v>466</v>
+      </c>
+      <c r="C34" s="128" t="s">
+        <v>473</v>
+      </c>
+      <c r="D34" s="129">
         <v>1</v>
       </c>
-      <c r="E29" s="124">
-        <v>40</v>
-      </c>
-      <c r="F29" s="125">
-        <f>E29*D29</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="120" t="s">
-        <v>494</v>
-      </c>
-      <c r="B30" s="126" t="s">
+      <c r="E34" s="228">
+        <v>43</v>
+      </c>
+      <c r="F34" s="119">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="130"/>
+      <c r="B35" s="100" t="s">
+        <v>467</v>
+      </c>
+      <c r="C35" s="211"/>
+      <c r="D35" s="212"/>
+      <c r="E35" s="213"/>
+      <c r="F35" s="131">
+        <f>SUM(F27:F34)</f>
+        <v>717</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="91" t="s">
         <v>495</v>
       </c>
-      <c r="C30" s="127" t="s">
-        <v>453</v>
-      </c>
-      <c r="D30" s="128">
-        <v>25</v>
-      </c>
-      <c r="E30" s="129">
-        <v>8</v>
-      </c>
-      <c r="F30" s="125">
-        <f t="shared" ref="F30:F35" si="2">E30*D30</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="120" t="s">
+      <c r="B36" s="114" t="s">
         <v>496</v>
       </c>
-      <c r="B31" s="126" t="s">
+      <c r="C36" s="214"/>
+      <c r="D36" s="215"/>
+      <c r="E36" s="215"/>
+      <c r="F36" s="216"/>
+    </row>
+    <row r="37" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="132" t="s">
         <v>497</v>
       </c>
-      <c r="C31" s="127" t="s">
-        <v>450</v>
-      </c>
-      <c r="D31" s="128">
+      <c r="B37" s="120" t="s">
+        <v>498</v>
+      </c>
+      <c r="C37" s="117" t="s">
+        <v>443</v>
+      </c>
+      <c r="D37" s="153">
+        <v>14</v>
+      </c>
+      <c r="E37" s="228">
+        <v>16</v>
+      </c>
+      <c r="F37" s="119">
+        <f>E37*D37</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="115" t="s">
+        <v>499</v>
+      </c>
+      <c r="B38" s="120" t="s">
+        <v>500</v>
+      </c>
+      <c r="C38" s="117" t="s">
+        <v>443</v>
+      </c>
+      <c r="D38" s="153">
+        <v>10</v>
+      </c>
+      <c r="E38" s="228">
+        <v>19</v>
+      </c>
+      <c r="F38" s="119">
+        <f>E38*D38</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="115" t="s">
+        <v>501</v>
+      </c>
+      <c r="B39" s="127" t="s">
+        <v>502</v>
+      </c>
+      <c r="C39" s="121" t="s">
+        <v>443</v>
+      </c>
+      <c r="D39" s="129">
         <v>1</v>
       </c>
-      <c r="E31" s="129">
-        <v>40</v>
-      </c>
-      <c r="F31" s="125">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="120" t="s">
-        <v>498</v>
-      </c>
-      <c r="B32" s="130" t="s">
-        <v>499</v>
-      </c>
-      <c r="C32" s="127" t="s">
-        <v>450</v>
-      </c>
-      <c r="D32" s="128">
-        <v>1</v>
-      </c>
-      <c r="E32" s="129">
-        <v>42</v>
-      </c>
-      <c r="F32" s="125">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="120" t="s">
-        <v>500</v>
-      </c>
-      <c r="B33" s="131" t="s">
+      <c r="E39" s="228">
+        <v>87</v>
+      </c>
+      <c r="F39" s="119">
+        <f t="shared" ref="F39" si="3">E39*D39</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="130"/>
+      <c r="B40" s="100" t="s">
+        <v>467</v>
+      </c>
+      <c r="C40" s="211"/>
+      <c r="D40" s="212"/>
+      <c r="E40" s="213"/>
+      <c r="F40" s="131">
+        <f>SUM(F37:F39)</f>
         <v>501</v>
       </c>
-      <c r="C33" s="127" t="s">
-        <v>450</v>
-      </c>
-      <c r="D33" s="132">
-        <v>1</v>
-      </c>
-      <c r="E33" s="129">
-        <v>242</v>
-      </c>
-      <c r="F33" s="125">
-        <f t="shared" si="2"/>
-        <v>242</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="120" t="s">
-        <v>502</v>
-      </c>
-      <c r="B34" s="133" t="s">
+    </row>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="133"/>
+      <c r="B41" s="134"/>
+      <c r="C41" s="135"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="137"/>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="138"/>
+      <c r="B42" s="139" t="s">
         <v>503</v>
       </c>
-      <c r="C34" s="127" t="s">
-        <v>450</v>
-      </c>
-      <c r="D34" s="132">
-        <v>4</v>
-      </c>
-      <c r="E34" s="129">
-        <v>40</v>
-      </c>
-      <c r="F34" s="125">
-        <f t="shared" si="2"/>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="120" t="s">
-        <v>504</v>
-      </c>
-      <c r="B35" s="134" t="s">
-        <v>473</v>
-      </c>
-      <c r="C35" s="135" t="s">
-        <v>481</v>
-      </c>
-      <c r="D35" s="136">
-        <v>1</v>
-      </c>
-      <c r="E35" s="129">
-        <v>80</v>
-      </c>
-      <c r="F35" s="125">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="137"/>
-      <c r="B36" s="102" t="s">
-        <v>474</v>
-      </c>
-      <c r="C36" s="216"/>
-      <c r="D36" s="217"/>
-      <c r="E36" s="218"/>
-      <c r="F36" s="138">
-        <f>SUM(F28:F35)</f>
-        <v>884</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="91" t="s">
-        <v>505</v>
-      </c>
-      <c r="B37" s="119" t="s">
-        <v>506</v>
-      </c>
-      <c r="C37" s="219"/>
-      <c r="D37" s="220"/>
-      <c r="E37" s="220"/>
-      <c r="F37" s="221"/>
-    </row>
-    <row r="38" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="139" t="s">
-        <v>507</v>
-      </c>
-      <c r="B38" s="126" t="s">
-        <v>508</v>
-      </c>
-      <c r="C38" s="122" t="s">
-        <v>450</v>
-      </c>
-      <c r="D38" s="160">
-        <v>14</v>
-      </c>
-      <c r="E38" s="124">
-        <v>40</v>
-      </c>
-      <c r="F38" s="125">
-        <f>E38*D38</f>
-        <v>560</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="120" t="s">
-        <v>509</v>
-      </c>
-      <c r="B39" s="126" t="s">
-        <v>510</v>
-      </c>
-      <c r="C39" s="122" t="s">
-        <v>450</v>
-      </c>
-      <c r="D39" s="160">
-        <v>10</v>
-      </c>
-      <c r="E39" s="124">
-        <v>40</v>
-      </c>
-      <c r="F39" s="125">
-        <f>E39*D39</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="120" t="s">
-        <v>511</v>
-      </c>
-      <c r="B40" s="134" t="s">
-        <v>512</v>
-      </c>
-      <c r="C40" s="127" t="s">
-        <v>450</v>
-      </c>
-      <c r="D40" s="136">
-        <v>1</v>
-      </c>
-      <c r="E40" s="129">
-        <v>120</v>
-      </c>
-      <c r="F40" s="125">
-        <f t="shared" ref="F40" si="3">E40*D40</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="137"/>
-      <c r="B41" s="102" t="s">
-        <v>474</v>
-      </c>
-      <c r="C41" s="216"/>
-      <c r="D41" s="217"/>
-      <c r="E41" s="218"/>
-      <c r="F41" s="138">
-        <f>SUM(F38:F40)</f>
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="140"/>
-      <c r="B42" s="141"/>
-      <c r="C42" s="142"/>
-      <c r="D42" s="142"/>
-      <c r="E42" s="143"/>
-      <c r="F42" s="144"/>
-    </row>
-    <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="145"/>
-      <c r="B43" s="146" t="s">
-        <v>513</v>
-      </c>
-      <c r="C43" s="222"/>
-      <c r="D43" s="223"/>
-      <c r="E43" s="224"/>
-      <c r="F43" s="147">
-        <f>F36+F25+F19+F41</f>
-        <v>17187.599999999999</v>
+      <c r="C42" s="217"/>
+      <c r="D42" s="218"/>
+      <c r="E42" s="219"/>
+      <c r="F42" s="140">
+        <f>F35+F25+F19+F40</f>
+        <v>20036</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C43:E43"/>
+  <mergeCells count="9">
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C42:E42"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
